--- a/kensho/Expantion_20180427.xlsx
+++ b/kensho/Expantion_20180427.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3084" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3227" uniqueCount="34">
   <si>
     <t>volatility_price</t>
   </si>
@@ -157,16 +157,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>surplusの閾値を0.8に変更</t>
-    <rPh sb="8" eb="10">
-      <t>シキイチ</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>ヘンコウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>slopeは消したまま　★4/30からのマスターにする</t>
     <rPh sb="6" eb="7">
       <t>ケ</t>
@@ -235,6 +225,52 @@
   </si>
   <si>
     <t>volatility</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1h3シグマの幅ロジックを消してしまっていた。。。</t>
+    <rPh sb="7" eb="8">
+      <t>ハバ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ケ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1h3シグマが2以上であれば一度カウントを0にするやつ</t>
+    <rPh sb="8" eb="10">
+      <t>イジョウ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>イチド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>←左記の3月～4月版</t>
+    <rPh sb="1" eb="3">
+      <t>サキ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ガツ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ガツ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>バン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>分析に使う</t>
+    <rPh sb="0" eb="2">
+      <t>ブンセキ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ツカ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -583,10 +619,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T437"/>
+  <dimension ref="A1:AO437"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="K30" sqref="K30"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -598,28 +634,40 @@
     <col min="11" max="11" width="17.44140625" customWidth="1"/>
     <col min="12" max="12" width="17.77734375" customWidth="1"/>
     <col min="14" max="14" width="15.6640625" customWidth="1"/>
+    <col min="20" max="20" width="20.44140625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="13.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>16</v>
       </c>
       <c r="K1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="T1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
+        <v>32</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>14</v>
       </c>
       <c r="K2" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="T2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -633,7 +681,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -644,7 +692,7 @@
         <v>-5200</v>
       </c>
       <c r="K4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="L4">
         <v>148</v>
@@ -653,9 +701,9 @@
         <v>7600</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:41" x14ac:dyDescent="0.2">
       <c r="K5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="L5">
         <v>260</v>
@@ -664,9 +712,9 @@
         <v>-4900</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:41" x14ac:dyDescent="0.2">
       <c r="J6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K6" t="s">
         <v>8</v>
@@ -678,7 +726,7 @@
         <v>5900</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:41" x14ac:dyDescent="0.2">
       <c r="K7" t="s">
         <v>9</v>
       </c>
@@ -689,9 +737,9 @@
         <v>-4200</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:41" x14ac:dyDescent="0.2">
       <c r="J8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K8" t="s">
         <v>8</v>
@@ -703,7 +751,7 @@
         <v>1600</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:41" x14ac:dyDescent="0.2">
       <c r="K9" t="s">
         <v>9</v>
       </c>
@@ -714,7 +762,7 @@
         <v>-600</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>4</v>
       </c>
@@ -734,25 +782,25 @@
         <v>6</v>
       </c>
       <c r="K12" t="s">
+        <v>20</v>
+      </c>
+      <c r="L12" t="s">
         <v>21</v>
       </c>
-      <c r="L12" t="s">
+      <c r="M12" t="s">
         <v>22</v>
       </c>
-      <c r="M12" t="s">
+      <c r="N12" t="s">
         <v>23</v>
       </c>
-      <c r="N12" t="s">
+      <c r="O12" t="s">
         <v>24</v>
       </c>
-      <c r="O12" t="s">
+      <c r="P12" t="s">
         <v>25</v>
       </c>
-      <c r="P12" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+    </row>
+    <row r="13" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
         <v>42795</v>
       </c>
@@ -802,8 +850,26 @@
       <c r="Q13" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="T13" s="4">
+        <v>43160.03460648148</v>
+      </c>
+      <c r="U13" s="4">
+        <v>43160.520729166667</v>
+      </c>
+      <c r="V13">
+        <v>42001</v>
+      </c>
+      <c r="W13" t="s">
+        <v>2</v>
+      </c>
+      <c r="X13" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y13">
+        <v>0.379</v>
+      </c>
+    </row>
+    <row r="14" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
         <v>42795</v>
       </c>
@@ -853,8 +919,26 @@
       <c r="Q14" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="T14" s="4">
+        <v>43160.722129629627</v>
+      </c>
+      <c r="U14" s="4">
+        <v>43160.735451388886</v>
+      </c>
+      <c r="V14">
+        <v>1151</v>
+      </c>
+      <c r="W14" t="s">
+        <v>2</v>
+      </c>
+      <c r="X14" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y14">
+        <v>-0.17699999999999999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
         <v>42796</v>
       </c>
@@ -904,8 +988,26 @@
       <c r="Q15" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="T15" s="4">
+        <v>43160.951319444444</v>
+      </c>
+      <c r="U15" s="4">
+        <v>43160.994039351855</v>
+      </c>
+      <c r="V15">
+        <v>3691</v>
+      </c>
+      <c r="W15" t="s">
+        <v>2</v>
+      </c>
+      <c r="X15" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y15">
+        <v>-0.17699999999999999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
         <v>42796</v>
       </c>
@@ -955,8 +1057,26 @@
       <c r="Q16" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="T16" s="4">
+        <v>43161.645787037036</v>
+      </c>
+      <c r="U16" s="4">
+        <v>43161.654942129629</v>
+      </c>
+      <c r="V16">
+        <v>791</v>
+      </c>
+      <c r="W16" t="s">
+        <v>2</v>
+      </c>
+      <c r="X16" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y16">
+        <v>-0.17699999999999999</v>
+      </c>
+    </row>
+    <row r="17" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A17" s="3">
         <v>42797</v>
       </c>
@@ -1003,8 +1123,26 @@
       <c r="P17" s="1">
         <v>-0.20949999999999999</v>
       </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="T17" s="4">
+        <v>43164.725578703707</v>
+      </c>
+      <c r="U17" s="4">
+        <v>43164.740405092591</v>
+      </c>
+      <c r="V17">
+        <v>1281</v>
+      </c>
+      <c r="W17" t="s">
+        <v>2</v>
+      </c>
+      <c r="X17" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y17">
+        <v>-0.18099999999999999</v>
+      </c>
+    </row>
+    <row r="18" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
         <v>42800</v>
       </c>
@@ -1054,8 +1192,26 @@
       <c r="Q18" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="T18" s="4">
+        <v>43164.746435185189</v>
+      </c>
+      <c r="U18" s="4">
+        <v>43164.756863425922</v>
+      </c>
+      <c r="V18">
+        <v>901</v>
+      </c>
+      <c r="W18" t="s">
+        <v>2</v>
+      </c>
+      <c r="X18" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y18">
+        <v>-0.17799999999999999</v>
+      </c>
+    </row>
+    <row r="19" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A19" s="3">
         <v>42801</v>
       </c>
@@ -1105,8 +1261,26 @@
       <c r="Q19" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="T19" s="4">
+        <v>43165.048541666663</v>
+      </c>
+      <c r="U19" s="4">
+        <v>43165.54855324074</v>
+      </c>
+      <c r="V19">
+        <v>43201</v>
+      </c>
+      <c r="W19" t="s">
+        <v>2</v>
+      </c>
+      <c r="X19" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y19">
+        <v>0.41199999999999998</v>
+      </c>
+    </row>
+    <row r="20" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A20" s="3">
         <v>42802</v>
       </c>
@@ -1156,8 +1330,26 @@
       <c r="Q20" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="T20" s="4">
+        <v>43165.694398148145</v>
+      </c>
+      <c r="U20" s="4">
+        <v>43165.82739583333</v>
+      </c>
+      <c r="V20">
+        <v>11491</v>
+      </c>
+      <c r="W20" t="s">
+        <v>2</v>
+      </c>
+      <c r="X20" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y20">
+        <v>-0.182</v>
+      </c>
+    </row>
+    <row r="21" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A21" s="3">
         <v>42803</v>
       </c>
@@ -1207,8 +1399,26 @@
       <c r="Q21" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="T21" s="4">
+        <v>43165.850671296299</v>
+      </c>
+      <c r="U21" s="4">
+        <v>43165.947905092595</v>
+      </c>
+      <c r="V21">
+        <v>8401</v>
+      </c>
+      <c r="W21" t="s">
+        <v>2</v>
+      </c>
+      <c r="X21" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y21">
+        <v>0.314</v>
+      </c>
+    </row>
+    <row r="22" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A22" s="3">
         <v>42804</v>
       </c>
@@ -1258,8 +1468,26 @@
       <c r="Q22" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="T22" s="4">
+        <v>43166.774189814816</v>
+      </c>
+      <c r="U22" s="4">
+        <v>43166.790752314817</v>
+      </c>
+      <c r="V22">
+        <v>1431</v>
+      </c>
+      <c r="W22" t="s">
+        <v>2</v>
+      </c>
+      <c r="X22" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y22">
+        <v>-0.17599999999999999</v>
+      </c>
+    </row>
+    <row r="23" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A23" s="3">
         <v>42804</v>
       </c>
@@ -1309,8 +1537,26 @@
       <c r="Q23" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="T23" s="4">
+        <v>43166.986018518517</v>
+      </c>
+      <c r="U23" s="4">
+        <v>43167.000034722223</v>
+      </c>
+      <c r="V23">
+        <v>1211</v>
+      </c>
+      <c r="W23" t="s">
+        <v>2</v>
+      </c>
+      <c r="X23" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y23">
+        <v>-0.182</v>
+      </c>
+    </row>
+    <row r="24" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A24" s="3">
         <v>42804</v>
       </c>
@@ -1357,8 +1603,26 @@
       <c r="P24" s="1">
         <v>-0.222</v>
       </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="T24" s="4">
+        <v>43168.006874999999</v>
+      </c>
+      <c r="U24" s="4">
+        <v>43168.014409722222</v>
+      </c>
+      <c r="V24">
+        <v>651</v>
+      </c>
+      <c r="W24" t="s">
+        <v>2</v>
+      </c>
+      <c r="X24" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y24">
+        <v>-0.17699999999999999</v>
+      </c>
+    </row>
+    <row r="25" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A25" s="3">
         <v>42805</v>
       </c>
@@ -1408,8 +1672,26 @@
       <c r="Q25" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="T25" s="4">
+        <v>43168.034675925926</v>
+      </c>
+      <c r="U25" s="4">
+        <v>43168.249965277777</v>
+      </c>
+      <c r="V25">
+        <v>18601</v>
+      </c>
+      <c r="W25" t="s">
+        <v>2</v>
+      </c>
+      <c r="X25" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y25">
+        <v>-5.9499999999999997E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A26" s="3">
         <v>42807</v>
       </c>
@@ -1459,8 +1741,26 @@
       <c r="Q26" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="T26" s="4">
+        <v>43168.940949074073</v>
+      </c>
+      <c r="U26" s="4">
+        <v>43169.076377314814</v>
+      </c>
+      <c r="V26">
+        <v>11701</v>
+      </c>
+      <c r="W26" t="s">
+        <v>2</v>
+      </c>
+      <c r="X26" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y26">
+        <v>0.214</v>
+      </c>
+    </row>
+    <row r="27" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A27" s="3">
         <v>42809</v>
       </c>
@@ -1507,8 +1807,26 @@
       <c r="P27" s="1">
         <v>-0.20349999999999999</v>
       </c>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="T27" s="4">
+        <v>43171.885300925926</v>
+      </c>
+      <c r="U27" s="4">
+        <v>43172.336701388886</v>
+      </c>
+      <c r="V27">
+        <v>39001</v>
+      </c>
+      <c r="W27" t="s">
+        <v>2</v>
+      </c>
+      <c r="X27" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y27">
+        <v>-2.1000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A28" s="3">
         <v>42810</v>
       </c>
@@ -1555,8 +1873,26 @@
       <c r="P28" s="1">
         <v>-0.2135</v>
       </c>
-    </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="T28" s="4">
+        <v>43172.916574074072</v>
+      </c>
+      <c r="U28" s="4">
+        <v>43173.023761574077</v>
+      </c>
+      <c r="V28">
+        <v>9261</v>
+      </c>
+      <c r="W28" t="s">
+        <v>2</v>
+      </c>
+      <c r="X28" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y28">
+        <v>-0.21299999999999999</v>
+      </c>
+    </row>
+    <row r="29" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A29" s="3">
         <v>42810</v>
       </c>
@@ -1606,8 +1942,26 @@
       <c r="Q29" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="T29" s="4">
+        <v>43173.048541666663</v>
+      </c>
+      <c r="U29" s="4">
+        <v>43173.07471064815</v>
+      </c>
+      <c r="V29">
+        <v>2261</v>
+      </c>
+      <c r="W29" t="s">
+        <v>2</v>
+      </c>
+      <c r="X29" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y29">
+        <v>-0.18</v>
+      </c>
+    </row>
+    <row r="30" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A30" s="3">
         <v>42810</v>
       </c>
@@ -1654,8 +2008,26 @@
       <c r="P30">
         <v>0.53249999999999997</v>
       </c>
-    </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="T30" s="4">
+        <v>43173.972175925926</v>
+      </c>
+      <c r="U30" s="4">
+        <v>43174.052048611113</v>
+      </c>
+      <c r="V30">
+        <v>6901</v>
+      </c>
+      <c r="W30" t="s">
+        <v>2</v>
+      </c>
+      <c r="X30" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y30">
+        <v>0.48399999999999999</v>
+      </c>
+    </row>
+    <row r="31" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A31" s="3">
         <v>42811</v>
       </c>
@@ -1705,8 +2077,26 @@
       <c r="Q31" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="T31" s="4">
+        <v>43174.781226851854</v>
+      </c>
+      <c r="U31" s="4">
+        <v>43174.788530092592</v>
+      </c>
+      <c r="V31">
+        <v>631</v>
+      </c>
+      <c r="W31" t="s">
+        <v>2</v>
+      </c>
+      <c r="X31" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y31">
+        <v>-0.20050000000000001</v>
+      </c>
+    </row>
+    <row r="32" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A32" s="3">
         <v>42811</v>
       </c>
@@ -1756,8 +2146,26 @@
       <c r="Q32" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="T32" s="4">
+        <v>43174.930439814816</v>
+      </c>
+      <c r="U32" s="4">
+        <v>43174.951979166668</v>
+      </c>
+      <c r="V32">
+        <v>1861</v>
+      </c>
+      <c r="W32" t="s">
+        <v>2</v>
+      </c>
+      <c r="X32" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y32">
+        <v>-0.185</v>
+      </c>
+    </row>
+    <row r="33" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A33" s="3">
         <v>42814</v>
       </c>
@@ -1807,8 +2215,26 @@
       <c r="Q33" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="T33" s="4">
+        <v>43175.652685185189</v>
+      </c>
+      <c r="U33" s="4">
+        <v>43175.691701388889</v>
+      </c>
+      <c r="V33">
+        <v>3371</v>
+      </c>
+      <c r="W33" t="s">
+        <v>2</v>
+      </c>
+      <c r="X33" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y33">
+        <v>-0.19750000000000001</v>
+      </c>
+    </row>
+    <row r="34" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A34" s="3">
         <v>42814</v>
       </c>
@@ -1858,8 +2284,26 @@
       <c r="Q34" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="T34" s="4">
+        <v>43175.902708333335</v>
+      </c>
+      <c r="U34" s="4">
+        <v>43175.91741898148</v>
+      </c>
+      <c r="V34">
+        <v>1271</v>
+      </c>
+      <c r="W34" t="s">
+        <v>2</v>
+      </c>
+      <c r="X34" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y34">
+        <v>-0.189</v>
+      </c>
+    </row>
+    <row r="35" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A35" s="3">
         <v>42815</v>
       </c>
@@ -1909,8 +2353,26 @@
       <c r="Q35" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="T35" s="4">
+        <v>43178.701273148145</v>
+      </c>
+      <c r="U35" s="4">
+        <v>43178.884502314817</v>
+      </c>
+      <c r="V35">
+        <v>15831</v>
+      </c>
+      <c r="W35" t="s">
+        <v>2</v>
+      </c>
+      <c r="X35" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y35">
+        <v>2.0390000000000001</v>
+      </c>
+    </row>
+    <row r="36" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A36" s="3">
         <v>42815</v>
       </c>
@@ -1960,8 +2422,26 @@
       <c r="Q36" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="T36" s="4">
+        <v>43179.670046296298</v>
+      </c>
+      <c r="U36" s="4">
+        <v>43179.756863425922</v>
+      </c>
+      <c r="V36">
+        <v>7501</v>
+      </c>
+      <c r="W36" t="s">
+        <v>2</v>
+      </c>
+      <c r="X36" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y36">
+        <v>4.8500000000000001E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A37" s="3">
         <v>42817</v>
       </c>
@@ -2011,8 +2491,26 @@
       <c r="Q37" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="T37" s="4">
+        <v>43179.756874999999</v>
+      </c>
+      <c r="U37" s="4">
+        <v>43180.771122685182</v>
+      </c>
+      <c r="V37">
+        <v>87631</v>
+      </c>
+      <c r="W37" t="s">
+        <v>0</v>
+      </c>
+      <c r="X37" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y37">
+        <v>-0.192</v>
+      </c>
+    </row>
+    <row r="38" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A38" s="3">
         <v>42817</v>
       </c>
@@ -2062,8 +2560,26 @@
       <c r="Q38" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="T38" s="4">
+        <v>43180.771481481483</v>
+      </c>
+      <c r="U38" s="4">
+        <v>43180.863622685189</v>
+      </c>
+      <c r="V38">
+        <v>7961</v>
+      </c>
+      <c r="W38" t="s">
+        <v>0</v>
+      </c>
+      <c r="X38" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y38">
+        <v>-0.2235</v>
+      </c>
+    </row>
+    <row r="39" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A39" s="3">
         <v>42817</v>
       </c>
@@ -2110,8 +2626,26 @@
       <c r="P39" s="1">
         <v>-0.2155</v>
       </c>
-    </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="T39" s="4">
+        <v>43180.863865740743</v>
+      </c>
+      <c r="U39" s="4">
+        <v>43180.894780092596</v>
+      </c>
+      <c r="V39">
+        <v>2671</v>
+      </c>
+      <c r="W39" t="s">
+        <v>0</v>
+      </c>
+      <c r="X39" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y39">
+        <v>-0.18</v>
+      </c>
+    </row>
+    <row r="40" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A40" s="3">
         <v>42818</v>
       </c>
@@ -2161,8 +2695,26 @@
       <c r="Q40" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="T40" s="4">
+        <v>43181.135300925926</v>
+      </c>
+      <c r="U40" s="4">
+        <v>43181.161354166667</v>
+      </c>
+      <c r="V40">
+        <v>2251</v>
+      </c>
+      <c r="W40" t="s">
+        <v>2</v>
+      </c>
+      <c r="X40" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y40">
+        <v>-0.17799999999999999</v>
+      </c>
+    </row>
+    <row r="41" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A41" s="3">
         <v>42821</v>
       </c>
@@ -2212,8 +2764,26 @@
       <c r="Q41" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="T41" s="4">
+        <v>43181.812407407408</v>
+      </c>
+      <c r="U41" s="4">
+        <v>43181.86519675926</v>
+      </c>
+      <c r="V41">
+        <v>4561</v>
+      </c>
+      <c r="W41" t="s">
+        <v>2</v>
+      </c>
+      <c r="X41" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y41">
+        <v>-0.17899999999999999</v>
+      </c>
+    </row>
+    <row r="42" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A42" s="3">
         <v>42821</v>
       </c>
@@ -2263,8 +2833,26 @@
       <c r="Q42" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="T42" s="4">
+        <v>43181.992986111109</v>
+      </c>
+      <c r="U42" s="4">
+        <v>43182.054571759261</v>
+      </c>
+      <c r="V42">
+        <v>5321</v>
+      </c>
+      <c r="W42" t="s">
+        <v>2</v>
+      </c>
+      <c r="X42" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y42">
+        <v>-0.183</v>
+      </c>
+    </row>
+    <row r="43" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A43" s="3">
         <v>42823</v>
       </c>
@@ -2314,8 +2902,26 @@
       <c r="Q43" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="T43" s="4">
+        <v>43182.847175925926</v>
+      </c>
+      <c r="U43" s="4">
+        <v>43183.027743055558</v>
+      </c>
+      <c r="V43">
+        <v>15601</v>
+      </c>
+      <c r="W43" t="s">
+        <v>2</v>
+      </c>
+      <c r="X43" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y43">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="44" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A44" s="3">
         <v>42823</v>
       </c>
@@ -2365,8 +2971,26 @@
       <c r="Q44" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="T44" s="4">
+        <v>43185.78460648148</v>
+      </c>
+      <c r="U44" s="4">
+        <v>43185.906145833331</v>
+      </c>
+      <c r="V44">
+        <v>10501</v>
+      </c>
+      <c r="W44" t="s">
+        <v>2</v>
+      </c>
+      <c r="X44" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y44">
+        <v>-0.12</v>
+      </c>
+    </row>
+    <row r="45" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A45" s="3">
         <v>42824</v>
       </c>
@@ -2416,8 +3040,26 @@
       <c r="Q45" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="T45" s="4">
+        <v>43185.920046296298</v>
+      </c>
+      <c r="U45" s="4">
+        <v>43185.931284722225</v>
+      </c>
+      <c r="V45">
+        <v>971</v>
+      </c>
+      <c r="W45" t="s">
+        <v>2</v>
+      </c>
+      <c r="X45" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y45">
+        <v>-0.17799999999999999</v>
+      </c>
+    </row>
+    <row r="46" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A46" s="3">
         <v>42828</v>
       </c>
@@ -2467,8 +3109,26 @@
       <c r="Q46" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="T46" s="4">
+        <v>43186.663124999999</v>
+      </c>
+      <c r="U46" s="4">
+        <v>43186.673900462964</v>
+      </c>
+      <c r="V46">
+        <v>931</v>
+      </c>
+      <c r="W46" t="s">
+        <v>2</v>
+      </c>
+      <c r="X46" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y46">
+        <v>-0.193</v>
+      </c>
+    </row>
+    <row r="47" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A47" s="3">
         <v>42829</v>
       </c>
@@ -2518,8 +3178,26 @@
       <c r="Q47" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="T47" s="4">
+        <v>43186.680509259262</v>
+      </c>
+      <c r="U47" s="4">
+        <v>43186.923576388886</v>
+      </c>
+      <c r="V47">
+        <v>21001</v>
+      </c>
+      <c r="W47" t="s">
+        <v>2</v>
+      </c>
+      <c r="X47" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y47">
+        <v>0.77400000000000002</v>
+      </c>
+    </row>
+    <row r="48" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A48" s="3">
         <v>42829</v>
       </c>
@@ -2566,8 +3244,26 @@
       <c r="P48">
         <v>0.5625</v>
       </c>
-    </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="T48" s="4">
+        <v>43187.635393518518</v>
+      </c>
+      <c r="U48" s="4">
+        <v>43187.647673611114</v>
+      </c>
+      <c r="V48">
+        <v>1061</v>
+      </c>
+      <c r="W48" t="s">
+        <v>2</v>
+      </c>
+      <c r="X48" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y48">
+        <v>-0.188</v>
+      </c>
+    </row>
+    <row r="49" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A49" s="3">
         <v>42830</v>
       </c>
@@ -2617,8 +3313,26 @@
       <c r="Q49" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="T49" s="4">
+        <v>43187.711689814816</v>
+      </c>
+      <c r="U49" s="4">
+        <v>43187.816099537034</v>
+      </c>
+      <c r="V49">
+        <v>9021</v>
+      </c>
+      <c r="W49" t="s">
+        <v>2</v>
+      </c>
+      <c r="X49" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y49">
+        <v>-0.1835</v>
+      </c>
+    </row>
+    <row r="50" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A50" s="3">
         <v>42831</v>
       </c>
@@ -2668,8 +3382,26 @@
       <c r="Q50" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="T50" s="4">
+        <v>43187.854074074072</v>
+      </c>
+      <c r="U50" s="4">
+        <v>43187.867858796293</v>
+      </c>
+      <c r="V50">
+        <v>1191</v>
+      </c>
+      <c r="W50" t="s">
+        <v>2</v>
+      </c>
+      <c r="X50" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y50">
+        <v>-0.17649999999999999</v>
+      </c>
+    </row>
+    <row r="51" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A51" s="3">
         <v>42831</v>
       </c>
@@ -2719,8 +3451,26 @@
       <c r="Q51" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="T51" s="4">
+        <v>43188.788124999999</v>
+      </c>
+      <c r="U51" s="4">
+        <v>43188.796469907407</v>
+      </c>
+      <c r="V51">
+        <v>721</v>
+      </c>
+      <c r="W51" t="s">
+        <v>2</v>
+      </c>
+      <c r="X51" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y51">
+        <v>-0.17799999999999999</v>
+      </c>
+    </row>
+    <row r="52" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A52" s="3">
         <v>42832</v>
       </c>
@@ -2767,8 +3517,26 @@
       <c r="P52" s="1">
         <v>-0.2</v>
       </c>
-    </row>
-    <row r="53" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="T52" s="4">
+        <v>43188.979120370372</v>
+      </c>
+      <c r="U52" s="4">
+        <v>43189.124965277777</v>
+      </c>
+      <c r="V52">
+        <v>12601</v>
+      </c>
+      <c r="W52" t="s">
+        <v>2</v>
+      </c>
+      <c r="X52" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y52">
+        <v>0.2465</v>
+      </c>
+    </row>
+    <row r="53" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A53" s="3">
         <v>42832</v>
       </c>
@@ -2818,8 +3586,26 @@
       <c r="Q53" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="54" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="T53" s="4">
+        <v>43189.732615740744</v>
+      </c>
+      <c r="U53" s="4">
+        <v>43189.752997685187</v>
+      </c>
+      <c r="V53">
+        <v>1761</v>
+      </c>
+      <c r="W53" t="s">
+        <v>2</v>
+      </c>
+      <c r="X53" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y53">
+        <v>-0.1615</v>
+      </c>
+    </row>
+    <row r="54" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A54" s="3">
         <v>42832</v>
       </c>
@@ -2869,8 +3655,26 @@
       <c r="Q54" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="55" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="T54" s="4">
+        <v>43193.104050925926</v>
+      </c>
+      <c r="U54" s="4">
+        <v>43193.19804398148</v>
+      </c>
+      <c r="V54">
+        <v>8121</v>
+      </c>
+      <c r="W54" t="s">
+        <v>2</v>
+      </c>
+      <c r="X54" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y54">
+        <v>-0.21</v>
+      </c>
+    </row>
+    <row r="55" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A55" s="3">
         <v>42832</v>
       </c>
@@ -2920,8 +3724,26 @@
       <c r="Q55" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="56" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="T55" s="4">
+        <v>43193.642268518517</v>
+      </c>
+      <c r="U55" s="4">
+        <v>43193.662881944445</v>
+      </c>
+      <c r="V55">
+        <v>1781</v>
+      </c>
+      <c r="W55" t="s">
+        <v>2</v>
+      </c>
+      <c r="X55" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y55">
+        <v>-0.20499999999999999</v>
+      </c>
+    </row>
+    <row r="56" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A56" s="3">
         <v>42833</v>
       </c>
@@ -2971,8 +3793,26 @@
       <c r="Q56" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="57" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="T56" s="4">
+        <v>43193.663124999999</v>
+      </c>
+      <c r="U56" s="4">
+        <v>43193.668692129628</v>
+      </c>
+      <c r="V56">
+        <v>481</v>
+      </c>
+      <c r="W56" t="s">
+        <v>0</v>
+      </c>
+      <c r="X56" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y56">
+        <v>-0.23300000000000001</v>
+      </c>
+    </row>
+    <row r="57" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A57" s="3">
         <v>42836</v>
       </c>
@@ -3022,8 +3862,26 @@
       <c r="Q57" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="58" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="T57" s="4">
+        <v>43194.680509259262</v>
+      </c>
+      <c r="U57" s="4">
+        <v>43194.857604166667</v>
+      </c>
+      <c r="V57">
+        <v>15301</v>
+      </c>
+      <c r="W57" t="s">
+        <v>2</v>
+      </c>
+      <c r="X57" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y57">
+        <v>0.62</v>
+      </c>
+    </row>
+    <row r="58" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A58" s="3">
         <v>42836</v>
       </c>
@@ -3073,8 +3931,26 @@
       <c r="Q58" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="59" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="T58" s="4">
+        <v>43194.916643518518</v>
+      </c>
+      <c r="U58" s="4">
+        <v>43195.569432870368</v>
+      </c>
+      <c r="V58">
+        <v>56401</v>
+      </c>
+      <c r="W58" t="s">
+        <v>2</v>
+      </c>
+      <c r="X58" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y58">
+        <v>1.0209999999999999</v>
+      </c>
+    </row>
+    <row r="59" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A59" s="3">
         <v>42836</v>
       </c>
@@ -3124,8 +4000,26 @@
       <c r="Q59" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="60" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="T59" s="4">
+        <v>43195.871412037035</v>
+      </c>
+      <c r="U59" s="4">
+        <v>43195.972118055557</v>
+      </c>
+      <c r="V59">
+        <v>8701</v>
+      </c>
+      <c r="W59" t="s">
+        <v>2</v>
+      </c>
+      <c r="X59" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y59">
+        <v>-6.9000000000000006E-2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A60" s="3">
         <v>42838</v>
       </c>
@@ -3175,8 +4069,26 @@
       <c r="Q60" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="61" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="T60" s="4">
+        <v>43196.954768518517</v>
+      </c>
+      <c r="U60" s="4">
+        <v>43197.002696759257</v>
+      </c>
+      <c r="V60">
+        <v>4141</v>
+      </c>
+      <c r="W60" t="s">
+        <v>2</v>
+      </c>
+      <c r="X60" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y60">
+        <v>-0.17699999999999999</v>
+      </c>
+    </row>
+    <row r="61" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A61" s="3">
         <v>42839</v>
       </c>
@@ -3226,8 +4138,26 @@
       <c r="Q61" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="62" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="T61" s="4">
+        <v>43199.933912037035</v>
+      </c>
+      <c r="U61" s="4">
+        <v>43199.949201388888</v>
+      </c>
+      <c r="V61">
+        <v>1321</v>
+      </c>
+      <c r="W61" t="s">
+        <v>2</v>
+      </c>
+      <c r="X61" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y61">
+        <v>-0.17799999999999999</v>
+      </c>
+    </row>
+    <row r="62" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A62" s="3">
         <v>42842</v>
       </c>
@@ -3274,8 +4204,26 @@
       <c r="P62" s="1">
         <v>-0.20449999999999999</v>
       </c>
-    </row>
-    <row r="63" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="T62" s="4">
+        <v>43200.770740740743</v>
+      </c>
+      <c r="U62" s="4">
+        <v>43200.815081018518</v>
+      </c>
+      <c r="V62">
+        <v>3831</v>
+      </c>
+      <c r="W62" t="s">
+        <v>2</v>
+      </c>
+      <c r="X62" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y62">
+        <v>-0.17699999999999999</v>
+      </c>
+    </row>
+    <row r="63" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A63" s="3">
         <v>42842</v>
       </c>
@@ -3322,8 +4270,26 @@
       <c r="P63">
         <v>1.198</v>
       </c>
-    </row>
-    <row r="64" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="T63" s="4">
+        <v>43201.840208333335</v>
+      </c>
+      <c r="U63" s="4">
+        <v>43201.939988425926</v>
+      </c>
+      <c r="V63">
+        <v>8621</v>
+      </c>
+      <c r="W63" t="s">
+        <v>2</v>
+      </c>
+      <c r="X63" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y63">
+        <v>-0.185</v>
+      </c>
+    </row>
+    <row r="64" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A64" s="3">
         <v>42843</v>
       </c>
@@ -3370,8 +4336,26 @@
       <c r="P64" s="1">
         <v>-0.22500000000000001</v>
       </c>
-    </row>
-    <row r="65" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="T64" s="4">
+        <v>43201.9999537037</v>
+      </c>
+      <c r="U64" s="4">
+        <v>43202.173460648148</v>
+      </c>
+      <c r="V64">
+        <v>14991</v>
+      </c>
+      <c r="W64" t="s">
+        <v>2</v>
+      </c>
+      <c r="X64" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y64">
+        <v>-0.18</v>
+      </c>
+    </row>
+    <row r="65" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A65" s="3">
         <v>42843</v>
       </c>
@@ -3418,8 +4402,26 @@
       <c r="P65">
         <v>0.13600000000000001</v>
       </c>
-    </row>
-    <row r="66" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="T65" s="4">
+        <v>43202.951365740744</v>
+      </c>
+      <c r="U65" s="4">
+        <v>43203.083321759259</v>
+      </c>
+      <c r="V65">
+        <v>11401</v>
+      </c>
+      <c r="W65" t="s">
+        <v>2</v>
+      </c>
+      <c r="X65" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y65">
+        <v>8.3000000000000004E-2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A66" s="3">
         <v>42843</v>
       </c>
@@ -3469,8 +4471,26 @@
       <c r="Q66" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="67" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="T66" s="4">
+        <v>43203.093634259261</v>
+      </c>
+      <c r="U66" s="4">
+        <v>43203.235659722224</v>
+      </c>
+      <c r="V66">
+        <v>12271</v>
+      </c>
+      <c r="W66" t="s">
+        <v>2</v>
+      </c>
+      <c r="X66" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y66">
+        <v>-0.182</v>
+      </c>
+    </row>
+    <row r="67" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A67" s="3">
         <v>42843</v>
       </c>
@@ -3520,8 +4540,26 @@
       <c r="Q67" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="68" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="T67" s="4">
+        <v>43203.642268518517</v>
+      </c>
+      <c r="U67" s="4">
+        <v>43203.850613425922</v>
+      </c>
+      <c r="V67">
+        <v>18001</v>
+      </c>
+      <c r="W67" t="s">
+        <v>2</v>
+      </c>
+      <c r="X67" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y67">
+        <v>0.40600000000000003</v>
+      </c>
+    </row>
+    <row r="68" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A68" s="3">
         <v>42844</v>
       </c>
@@ -3571,8 +4609,26 @@
       <c r="Q68" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="69" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="T68" s="4">
+        <v>43203.968680555554</v>
+      </c>
+      <c r="U68" s="4">
+        <v>43204.208391203705</v>
+      </c>
+      <c r="V68">
+        <v>20711</v>
+      </c>
+      <c r="W68" t="s">
+        <v>2</v>
+      </c>
+      <c r="X68" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y68">
+        <v>0.39500000000000002</v>
+      </c>
+    </row>
+    <row r="69" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A69" s="3">
         <v>42844</v>
       </c>
@@ -3622,8 +4678,26 @@
       <c r="Q69" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="70" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="T69" s="4">
+        <v>43206.791550925926</v>
+      </c>
+      <c r="U69" s="4">
+        <v>43207.083229166667</v>
+      </c>
+      <c r="V69">
+        <v>25201</v>
+      </c>
+      <c r="W69" t="s">
+        <v>2</v>
+      </c>
+      <c r="X69" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y69">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="70" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A70" s="3">
         <v>42844</v>
       </c>
@@ -3673,8 +4747,26 @@
       <c r="Q70" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="71" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="T70" s="4">
+        <v>43207.739490740743</v>
+      </c>
+      <c r="U70" s="4">
+        <v>43207.834988425922</v>
+      </c>
+      <c r="V70">
+        <v>8251</v>
+      </c>
+      <c r="W70" t="s">
+        <v>2</v>
+      </c>
+      <c r="X70" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y70">
+        <v>-0.17549999999999999</v>
+      </c>
+    </row>
+    <row r="71" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A71" s="3">
         <v>42845</v>
       </c>
@@ -3724,8 +4816,26 @@
       <c r="Q71" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="72" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="T71" s="4">
+        <v>43208.024236111109</v>
+      </c>
+      <c r="U71" s="4">
+        <v>43208.367997685185</v>
+      </c>
+      <c r="V71">
+        <v>29701</v>
+      </c>
+      <c r="W71" t="s">
+        <v>2</v>
+      </c>
+      <c r="X71" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y71">
+        <v>0.1925</v>
+      </c>
+    </row>
+    <row r="72" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A72" s="3">
         <v>42845</v>
       </c>
@@ -3775,8 +4885,26 @@
       <c r="Q72" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="73" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="T72" s="4">
+        <v>43208.680509259262</v>
+      </c>
+      <c r="U72" s="4">
+        <v>43208.874965277777</v>
+      </c>
+      <c r="V72">
+        <v>16801</v>
+      </c>
+      <c r="W72" t="s">
+        <v>2</v>
+      </c>
+      <c r="X72" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y72">
+        <v>0.94199999999999995</v>
+      </c>
+    </row>
+    <row r="73" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A73" s="3">
         <v>42846</v>
       </c>
@@ -3826,8 +4954,26 @@
       <c r="Q73" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="74" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="T73" s="4">
+        <v>43209.822893518518</v>
+      </c>
+      <c r="U73" s="4">
+        <v>43210.013877314814</v>
+      </c>
+      <c r="V73">
+        <v>16501</v>
+      </c>
+      <c r="W73" t="s">
+        <v>2</v>
+      </c>
+      <c r="X73" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y73">
+        <v>-0.182</v>
+      </c>
+    </row>
+    <row r="74" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A74" s="3">
         <v>42849</v>
       </c>
@@ -3877,8 +5023,26 @@
       <c r="Q74" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="75" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="T74" s="4">
+        <v>43210.09710648148</v>
+      </c>
+      <c r="U74" s="4">
+        <v>43210.437395833331</v>
+      </c>
+      <c r="V74">
+        <v>29401</v>
+      </c>
+      <c r="W74" t="s">
+        <v>2</v>
+      </c>
+      <c r="X74" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y74">
+        <v>0.21099999999999999</v>
+      </c>
+    </row>
+    <row r="75" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A75" s="3">
         <v>42851</v>
       </c>
@@ -3928,8 +5092,26 @@
       <c r="Q75" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="76" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="T75" s="4">
+        <v>43211.086712962962</v>
+      </c>
+      <c r="U75" s="4">
+        <v>43211.122488425928</v>
+      </c>
+      <c r="V75">
+        <v>3091</v>
+      </c>
+      <c r="W75" t="s">
+        <v>2</v>
+      </c>
+      <c r="X75" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y75">
+        <v>-0.17799999999999999</v>
+      </c>
+    </row>
+    <row r="76" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A76" s="3">
         <v>42851</v>
       </c>
@@ -3979,8 +5161,26 @@
       <c r="Q76" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="77" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="T76" s="4">
+        <v>43213.663078703707</v>
+      </c>
+      <c r="U76" s="4">
+        <v>43213.692141203705</v>
+      </c>
+      <c r="V76">
+        <v>2511</v>
+      </c>
+      <c r="W76" t="s">
+        <v>2</v>
+      </c>
+      <c r="X76" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y76">
+        <v>-0.183</v>
+      </c>
+    </row>
+    <row r="77" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A77" s="3">
         <v>42851</v>
       </c>
@@ -4030,8 +5230,26 @@
       <c r="Q77" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="78" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="T77" s="4">
+        <v>43213.923518518517</v>
+      </c>
+      <c r="U77" s="4">
+        <v>43213.945057870369</v>
+      </c>
+      <c r="V77">
+        <v>1861</v>
+      </c>
+      <c r="W77" t="s">
+        <v>2</v>
+      </c>
+      <c r="X77" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y77">
+        <v>-0.17599999999999999</v>
+      </c>
+    </row>
+    <row r="78" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A78" s="3">
         <v>42852</v>
       </c>
@@ -4081,8 +5299,26 @@
       <c r="Q78" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="79" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="T78" s="4">
+        <v>43214.749930555554</v>
+      </c>
+      <c r="U78" s="4">
+        <v>43215.058969907404</v>
+      </c>
+      <c r="V78">
+        <v>26701</v>
+      </c>
+      <c r="W78" t="s">
+        <v>2</v>
+      </c>
+      <c r="X78" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y78">
+        <v>0.39100000000000001</v>
+      </c>
+    </row>
+    <row r="79" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A79" s="3">
         <v>42853</v>
       </c>
@@ -4132,8 +5368,26 @@
       <c r="Q79" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="80" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="T79" s="4">
+        <v>43215.065925925926</v>
+      </c>
+      <c r="U79" s="4">
+        <v>43215.347187500003</v>
+      </c>
+      <c r="V79">
+        <v>24301</v>
+      </c>
+      <c r="W79" t="s">
+        <v>2</v>
+      </c>
+      <c r="X79" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y79">
+        <v>-0.15049999999999999</v>
+      </c>
+    </row>
+    <row r="80" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A80" s="3">
         <v>42853</v>
       </c>
@@ -4183,8 +5437,26 @@
       <c r="Q80" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="81" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="T80" s="4">
+        <v>43215.680532407408</v>
+      </c>
+      <c r="U80" s="4">
+        <v>43215.72383101852</v>
+      </c>
+      <c r="V80">
+        <v>3741</v>
+      </c>
+      <c r="W80" t="s">
+        <v>2</v>
+      </c>
+      <c r="X80" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y80">
+        <v>-0.17699999999999999</v>
+      </c>
+    </row>
+    <row r="81" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A81" s="3">
         <v>42856</v>
       </c>
@@ -4234,8 +5506,26 @@
       <c r="Q81" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="82" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="T81" s="4">
+        <v>43216.899189814816</v>
+      </c>
+      <c r="U81" s="4">
+        <v>43216.902673611112</v>
+      </c>
+      <c r="V81">
+        <v>301</v>
+      </c>
+      <c r="W81" t="s">
+        <v>2</v>
+      </c>
+      <c r="X81" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y81">
+        <v>-7.4999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="82" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A82" s="3">
         <v>42856</v>
       </c>
@@ -4285,8 +5575,26 @@
       <c r="Q82" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="83" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="T82" s="4">
+        <v>43217.711712962962</v>
+      </c>
+      <c r="U82" s="4">
+        <v>43217.906168981484</v>
+      </c>
+      <c r="V82">
+        <v>16801</v>
+      </c>
+      <c r="W82" t="s">
+        <v>2</v>
+      </c>
+      <c r="X82" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y82">
+        <v>1.1020000000000001</v>
+      </c>
+    </row>
+    <row r="83" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A83" s="3">
         <v>42858</v>
       </c>
@@ -4337,7 +5645,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="84" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A84" s="3">
         <v>42859</v>
       </c>
@@ -4388,7 +5696,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="85" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A85" s="3">
         <v>42860</v>
       </c>
@@ -4439,7 +5747,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="86" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A86" s="3">
         <v>42860</v>
       </c>
@@ -4487,7 +5795,7 @@
         <v>0.15049999999999999</v>
       </c>
     </row>
-    <row r="87" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A87" s="3">
         <v>42863</v>
       </c>
@@ -4538,7 +5846,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="88" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A88" s="3">
         <v>42863</v>
       </c>
@@ -4589,7 +5897,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="89" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A89" s="3">
         <v>42864</v>
       </c>
@@ -4640,7 +5948,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="90" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A90" s="3">
         <v>42865</v>
       </c>
@@ -4691,7 +5999,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="91" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A91" s="3">
         <v>42866</v>
       </c>
@@ -4742,7 +6050,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="92" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A92" s="3">
         <v>42867</v>
       </c>
@@ -4790,7 +6098,7 @@
         <v>-0.216</v>
       </c>
     </row>
-    <row r="93" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A93" s="3">
         <v>42868</v>
       </c>
@@ -4841,7 +6149,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="94" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A94" s="3">
         <v>42870</v>
       </c>
@@ -4892,7 +6200,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="95" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A95" s="3">
         <v>42872</v>
       </c>
@@ -4943,7 +6251,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="96" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A96" s="3">
         <v>42872</v>
       </c>

--- a/kensho/Expantion_20180427.xlsx
+++ b/kensho/Expantion_20180427.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\master\oanda_dev\kensho\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\reverse\oanda_dev\kensho\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -621,8 +621,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AO437"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="L4" sqref="L4"/>
+    <sheetView tabSelected="1" topLeftCell="J211" workbookViewId="0">
+      <selection activeCell="P211" sqref="P211"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>

--- a/kensho/Expantion_20180427.xlsx
+++ b/kensho/Expantion_20180427.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\reverse\oanda_dev\kensho\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\reverse_logic\oanda_dev\kensho\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13800" windowHeight="6264"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="13800" windowHeight="6264"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -621,8 +621,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AO437"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J211" workbookViewId="0">
-      <selection activeCell="P211" sqref="P211"/>
+    <sheetView tabSelected="1" topLeftCell="J378" workbookViewId="0">
+      <selection activeCell="K13" sqref="K13:Q420"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>

--- a/kensho/Expantion_20180427.xlsx
+++ b/kensho/Expantion_20180427.xlsx
@@ -9,14 +9,16 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13800" windowHeight="6264"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13800" windowHeight="6264" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="一番成績いいやつ" sheetId="4" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="5" r:id="rId2"/>
+    <sheet name="一番成績いいやつ" sheetId="4" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$AA$12:$AI$440</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet2!$H$4:$N$89</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -28,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4094" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4641" uniqueCount="286">
   <si>
     <t>volatility_price</t>
   </si>
@@ -319,6 +321,772 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>ORDER_PRICE=140.194</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> STL_PRICE=140.0055</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ORDER_KIND=buy</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> PROFIT=-0.204</t>
+  </si>
+  <si>
+    <t>ORDER_PRICE=139.308</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> STL_PRICE=139.5075</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ORDER_KIND=sell</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> PROFIT=-0.214</t>
+  </si>
+  <si>
+    <t>ORDER_PRICE=139.057</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> STL_PRICE=139.249</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> PROFIT=-0.207</t>
+  </si>
+  <si>
+    <t>ORDER_PRICE=138.465</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> STL_PRICE=138.655</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> PROFIT=-0.203</t>
+  </si>
+  <si>
+    <t>ORDER_PRICE=140.001</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> STL_PRICE=139.8115</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> PROFIT=-0.202</t>
+  </si>
+  <si>
+    <t>ORDER_PRICE=139.913</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> STL_PRICE=139.7545</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> PROFIT=-0.224</t>
+  </si>
+  <si>
+    <t>ORDER_PRICE=139.754</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> STL_PRICE=139.2675</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> PROFIT=0.471</t>
+  </si>
+  <si>
+    <t>ORDER_PRICE=140.379</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> STL_PRICE=140.19</t>
+  </si>
+  <si>
+    <t>ORDER_PRICE=138.819</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> STL_PRICE=138.994</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> PROFIT=-0.235</t>
+  </si>
+  <si>
+    <t>ORDER_PRICE=138.802</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> STL_PRICE=138.6485</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> PROFIT=0.138</t>
+  </si>
+  <si>
+    <t>ORDER_PRICE=138.757</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> STL_PRICE=138.9285</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> PROFIT=0.156</t>
+  </si>
+  <si>
+    <t>ORDER_PRICE=139.545</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> STL_PRICE=138.574</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> PROFIT=0.959</t>
+  </si>
+  <si>
+    <t>ORDER_PRICE=138.748</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> STL_PRICE=138.5395</t>
+  </si>
+  <si>
+    <t>ORDER_PRICE=137.482</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> STL_PRICE=137.677</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> PROFIT=-0.208</t>
+  </si>
+  <si>
+    <t>ORDER_PRICE=137.16</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> STL_PRICE=137.358</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> PROFIT=-0.212</t>
+  </si>
+  <si>
+    <t>ORDER_PRICE=137.157</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> STL_PRICE=137.34</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> PROFIT=-0.21</t>
+  </si>
+  <si>
+    <t>ORDER_PRICE=137.17</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> STL_PRICE=136.877</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> PROFIT=0.279</t>
+  </si>
+  <si>
+    <t>ORDER_PRICE=135.982</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> STL_PRICE=136.063</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> PROFIT=-0.127</t>
+  </si>
+  <si>
+    <t>ORDER_PRICE=139.699</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> STL_PRICE=140.0215</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> PROFIT=0.282</t>
+  </si>
+  <si>
+    <t>ORDER_PRICE=139.527</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> STL_PRICE=139.716</t>
+  </si>
+  <si>
+    <t>ORDER_PRICE=143.807</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> STL_PRICE=143.5775</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> PROFIT=-0.246</t>
+  </si>
+  <si>
+    <t>ORDER_PRICE=144.131</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> STL_PRICE=143.9315</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> PROFIT=-0.213</t>
+  </si>
+  <si>
+    <t>ORDER_PRICE=145.348</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> STL_PRICE=145.07</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> PROFIT=-0.298</t>
+  </si>
+  <si>
+    <t>ORDER_PRICE=146.373</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> STL_PRICE=146.935</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> PROFIT=0.55</t>
+  </si>
+  <si>
+    <t>ORDER_PRICE=146.299</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> STL_PRICE=145.153</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> PROFIT=1.133</t>
+  </si>
+  <si>
+    <t>ORDER_PRICE=145.169</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> STL_PRICE=144.966</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> PROFIT=-0.215</t>
+  </si>
+  <si>
+    <t>ORDER_PRICE=144.429</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> STL_PRICE=144.619</t>
+  </si>
+  <si>
+    <t>ORDER_PRICE=144.769</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> STL_PRICE=144.9635</t>
+  </si>
+  <si>
+    <t>ORDER_PRICE=142.844</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> STL_PRICE=142.2165</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> PROFIT=0.611</t>
+  </si>
+  <si>
+    <t>ORDER_PRICE=143.217</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> STL_PRICE=143.0075</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> PROFIT=-0.222</t>
+  </si>
+  <si>
+    <t>ORDER_PRICE=142.6</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> STL_PRICE=142.0645</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> PROFIT=0.521</t>
+  </si>
+  <si>
+    <t>ORDER_PRICE=141.905</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> STL_PRICE=142.094</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> PROFIT=-0.201</t>
+  </si>
+  <si>
+    <t>ORDER_PRICE=140.893</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> STL_PRICE=141.0835</t>
+  </si>
+  <si>
+    <t>ORDER_PRICE=141.749</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> STL_PRICE=141.5515</t>
+  </si>
+  <si>
+    <t>ORDER_PRICE=142.128</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> STL_PRICE=141.936</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> PROFIT=-0.205</t>
+  </si>
+  <si>
+    <t>ORDER_PRICE=142.113</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> STL_PRICE=142.227</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> PROFIT=0.102</t>
+  </si>
+  <si>
+    <t>ORDER_PRICE=142.686</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> STL_PRICE=143.7025</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> PROFIT=1.003</t>
+  </si>
+  <si>
+    <t>ORDER_PRICE=147.049</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> STL_PRICE=146.851</t>
+  </si>
+  <si>
+    <t>ORDER_PRICE=146.346</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> STL_PRICE=145.929</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> PROFIT=0.404</t>
+  </si>
+  <si>
+    <t>ORDER_PRICE=145.02</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> STL_PRICE=145.21</t>
+  </si>
+  <si>
+    <t>ORDER_PRICE=144.451</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> STL_PRICE=144.449</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> PROFIT=-0.01</t>
+  </si>
+  <si>
+    <t>ORDER_PRICE=145.301</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> STL_PRICE=145.548</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> PROFIT=0.235</t>
+  </si>
+  <si>
+    <t>ORDER_PRICE=146.115</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> STL_PRICE=145.9265</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> PROFIT=-0.2</t>
+  </si>
+  <si>
+    <t>ORDER_PRICE=145.892</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> STL_PRICE=145.682</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> PROFIT=-0.273</t>
+  </si>
+  <si>
+    <t>ORDER_PRICE=146.099</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> STL_PRICE=145.9005</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> PROFIT=-0.209</t>
+  </si>
+  <si>
+    <t>ORDER_PRICE=146.548</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> STL_PRICE=146.3605</t>
+  </si>
+  <si>
+    <t>ORDER_PRICE=145.64</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> STL_PRICE=145.4515</t>
+  </si>
+  <si>
+    <t>ORDER_PRICE=143.847</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> STL_PRICE=143.541</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> PROFIT=0.293</t>
+  </si>
+  <si>
+    <t>ORDER_PRICE=142.078</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> STL_PRICE=142.266</t>
+  </si>
+  <si>
+    <t>ORDER_PRICE=140.561</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> STL_PRICE=140.48</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> PROFIT=0.069</t>
+  </si>
+  <si>
+    <t>ORDER_PRICE=140.338</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> STL_PRICE=140.14</t>
+  </si>
+  <si>
+    <t>ORDER_PRICE=139.445</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> STL_PRICE=139.64</t>
+  </si>
+  <si>
+    <t>ORDER_PRICE=140.019</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> STL_PRICE=140.2225</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> PROFIT=-0.219</t>
+  </si>
+  <si>
+    <t>ORDER_PRICE=140.737</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> STL_PRICE=140.44</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> PROFIT=-0.317</t>
+  </si>
+  <si>
+    <t>ORDER_PRICE=141.075</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> STL_PRICE=140.9555</t>
+  </si>
+  <si>
+    <t>ORDER_PRICE=141.755</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> STL_PRICE=141.9425</t>
+  </si>
+  <si>
+    <t>ORDER_PRICE=141.354</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> STL_PRICE=141.549</t>
+  </si>
+  <si>
+    <t>ORDER_PRICE=142.158</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> STL_PRICE=142.3005</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> PROFIT=0.128</t>
+  </si>
+  <si>
+    <t>ORDER_PRICE=142.181</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> STL_PRICE=141.9755</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> PROFIT=-0.217</t>
+  </si>
+  <si>
+    <t>ORDER_PRICE=145.968</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> STL_PRICE=145.7755</t>
+  </si>
+  <si>
+    <t>ORDER_PRICE=146.701</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> STL_PRICE=146.8955</t>
+  </si>
+  <si>
+    <t>ORDER_PRICE=151.646</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> STL_PRICE=151.853</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> PROFIT=-0.218</t>
+  </si>
+  <si>
+    <t>ORDER_PRICE=150.742</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> STL_PRICE=150.9315</t>
+  </si>
+  <si>
+    <t>ORDER_PRICE=151.313</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> STL_PRICE=151.12</t>
+  </si>
+  <si>
+    <t>ORDER_PRICE=151.112</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> STL_PRICE=150.916</t>
+  </si>
+  <si>
+    <t>ORDER_PRICE=150.265</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> STL_PRICE=150.4615</t>
+  </si>
+  <si>
+    <t>ORDER_PRICE=149.965</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> STL_PRICE=150.155</t>
+  </si>
+  <si>
+    <t>ORDER_PRICE=149.559</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> STL_PRICE=149.73</t>
+  </si>
+  <si>
+    <t>ORDER_PRICE=149.074</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> STL_PRICE=149.4255</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> PROFIT=-0.407</t>
+  </si>
+  <si>
+    <t>ORDER_PRICE=148.63</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> STL_PRICE=148.041</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> PROFIT=0.576</t>
+  </si>
+  <si>
+    <t>ORDER_PRICE=147.322</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> STL_PRICE=147.1865</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> PROFIT=0.123</t>
+  </si>
+  <si>
+    <t>ORDER_PRICE=148.314</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> STL_PRICE=148.5105</t>
+  </si>
+  <si>
+    <t>ORDER_PRICE=148.257</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> STL_PRICE=148.4935</t>
+  </si>
+  <si>
+    <t>ORDER_PRICE=147.823</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> STL_PRICE=148.0125</t>
+  </si>
+  <si>
+    <t>ORDER_PRICE=149.254</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> STL_PRICE=149.444</t>
+  </si>
+  <si>
+    <t>ORDER_PRICE=149.399</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> STL_PRICE=149.402</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> PROFIT=-0.017</t>
+  </si>
+  <si>
+    <t>ORDER_PRICE=149.246</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> STL_PRICE=149.4495</t>
+  </si>
+  <si>
+    <t>ORDER_PRICE=150.268</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> STL_PRICE=151.19</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> PROFIT=0.907</t>
+  </si>
+  <si>
+    <t>ORDER_PRICE=149.745</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> STL_PRICE=149.945</t>
+  </si>
+  <si>
+    <t>ORDER_PRICE=149.752</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> STL_PRICE=149.561</t>
+  </si>
+  <si>
+    <t>ORDER_PRICE=149.435</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> STL_PRICE=148.8975</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> PROFIT=0.525</t>
+  </si>
+  <si>
+    <t>ORDER_PRICE=149.104</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> STL_PRICE=149.0375</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> PROFIT=0.053</t>
+  </si>
+  <si>
+    <t>ORDER_PRICE=148.96</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> STL_PRICE=149.1655</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> PROFIT=-0.22</t>
+  </si>
+  <si>
+    <t>ORDER_PRICE=148.942</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> STL_PRICE=148.7455</t>
+  </si>
+  <si>
+    <t>ORDER_PRICE=149.336</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> STL_PRICE=149.1465</t>
+  </si>
+  <si>
+    <t>ORDER_PRICE=148.266</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> STL_PRICE=148.4845</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> PROFIT=-0.23</t>
+  </si>
+  <si>
+    <t>ORDER_PRICE=148.896</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> STL_PRICE=148.945</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> PROFIT=0.035</t>
+  </si>
+  <si>
+    <t>ORDER_PRICE=148.952</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> STL_PRICE=148.757</t>
+  </si>
+  <si>
+    <t>ORDER_PRICE=148.276</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> STL_PRICE=148.4715</t>
+  </si>
+  <si>
+    <t>ORDER_PRICE=148.729</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> STL_PRICE=148.541</t>
+  </si>
+  <si>
+    <t>ORDER_PRICE=148.369</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> STL_PRICE=148.5685</t>
+  </si>
+  <si>
+    <t>ORDER_PRICE=148.773</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> STL_PRICE=148.578</t>
+  </si>
+  <si>
+    <t>ORDER_PRICE=148.491</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> STL_PRICE=148.299</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> PROFIT=-0.206</t>
+  </si>
+  <si>
+    <t>ORDER_PRICE=147.62</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> STL_PRICE=147.8025</t>
+  </si>
+  <si>
+    <t>日足5日終値を結んだslopeがマイナスであれば、売りのときにstoplossレートを大きめに調整、買いであれば0.2で入る</t>
+    <rPh sb="0" eb="1">
+      <t>ニッ</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>アシ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ニチ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>オワリネ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ムス</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>ウ</t>
+    </rPh>
+    <rPh sb="43" eb="44">
+      <t>オオ</t>
+    </rPh>
+    <rPh sb="47" eb="49">
+      <t>チョウセイ</t>
+    </rPh>
+    <rPh sb="50" eb="51">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="60" eb="61">
+      <t>ハイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
@@ -389,16 +1157,7 @@
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFF00"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -676,8 +1435,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AP440"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H314" workbookViewId="0">
-      <selection activeCell="L323" sqref="L323"/>
+    <sheetView topLeftCell="J97" workbookViewId="0">
+      <selection activeCell="P134" sqref="P134"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -34725,6 +35484,3140 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N97"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G23" sqref="G23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="22.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="17.21875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.21875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D4" t="s">
+        <v>44</v>
+      </c>
+      <c r="H4" s="4">
+        <v>42796.638773148145</v>
+      </c>
+      <c r="I4" s="4">
+        <v>42798.208344907405</v>
+      </c>
+      <c r="J4">
+        <v>135611</v>
+      </c>
+      <c r="K4" t="s">
+        <v>2</v>
+      </c>
+      <c r="L4" t="s">
+        <v>3</v>
+      </c>
+      <c r="M4" s="1">
+        <v>-0.06</v>
+      </c>
+      <c r="N4">
+        <v>-3.3010000000001001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C5" t="s">
+        <v>47</v>
+      </c>
+      <c r="D5" t="s">
+        <v>48</v>
+      </c>
+      <c r="H5" s="4">
+        <v>42800.725578703707</v>
+      </c>
+      <c r="I5" s="4">
+        <v>42802.906145833331</v>
+      </c>
+      <c r="J5">
+        <v>188401</v>
+      </c>
+      <c r="K5" t="s">
+        <v>2</v>
+      </c>
+      <c r="L5" t="s">
+        <v>1</v>
+      </c>
+      <c r="M5" s="1">
+        <v>0.47499999999999998</v>
+      </c>
+      <c r="N5">
+        <v>0.73949999999995697</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B6" t="s">
+        <v>50</v>
+      </c>
+      <c r="C6" t="s">
+        <v>47</v>
+      </c>
+      <c r="D6" t="s">
+        <v>51</v>
+      </c>
+      <c r="H6" s="4">
+        <v>42803.954768518517</v>
+      </c>
+      <c r="I6" s="4">
+        <v>42805.208368055559</v>
+      </c>
+      <c r="J6">
+        <v>108311</v>
+      </c>
+      <c r="K6" t="s">
+        <v>2</v>
+      </c>
+      <c r="L6" t="s">
+        <v>3</v>
+      </c>
+      <c r="M6" s="1">
+        <v>-0.21299999999999999</v>
+      </c>
+      <c r="N6">
+        <v>-3.5145</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>52</v>
+      </c>
+      <c r="B7" t="s">
+        <v>53</v>
+      </c>
+      <c r="C7" t="s">
+        <v>47</v>
+      </c>
+      <c r="D7" t="s">
+        <v>54</v>
+      </c>
+      <c r="H7" s="4">
+        <v>42814.87835648148</v>
+      </c>
+      <c r="I7" s="4">
+        <v>42815.437395833331</v>
+      </c>
+      <c r="J7">
+        <v>48301</v>
+      </c>
+      <c r="K7" t="s">
+        <v>2</v>
+      </c>
+      <c r="L7" t="s">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>0.47099999999999997</v>
+      </c>
+      <c r="N7">
+        <v>-1.10849999999979</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>55</v>
+      </c>
+      <c r="B8" t="s">
+        <v>56</v>
+      </c>
+      <c r="C8" t="s">
+        <v>43</v>
+      </c>
+      <c r="D8" t="s">
+        <v>57</v>
+      </c>
+      <c r="H8" s="4">
+        <v>42815.822824074072</v>
+      </c>
+      <c r="I8" s="4">
+        <v>42816.029432870368</v>
+      </c>
+      <c r="J8">
+        <v>17851</v>
+      </c>
+      <c r="K8" t="s">
+        <v>2</v>
+      </c>
+      <c r="L8" t="s">
+        <v>3</v>
+      </c>
+      <c r="M8" s="1">
+        <v>-1.0049999999999999</v>
+      </c>
+      <c r="N8">
+        <v>-0.84649999999988801</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>58</v>
+      </c>
+      <c r="B9" t="s">
+        <v>59</v>
+      </c>
+      <c r="C9" t="s">
+        <v>43</v>
+      </c>
+      <c r="D9" t="s">
+        <v>60</v>
+      </c>
+      <c r="H9" s="4">
+        <v>42817.687430555554</v>
+      </c>
+      <c r="I9" s="4">
+        <v>42819.208391203705</v>
+      </c>
+      <c r="J9">
+        <v>131411</v>
+      </c>
+      <c r="K9" t="s">
+        <v>2</v>
+      </c>
+      <c r="L9" t="s">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>-8.5000000000000006E-2</v>
+      </c>
+      <c r="N9">
+        <v>-2.44049999999991</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>61</v>
+      </c>
+      <c r="B10" t="s">
+        <v>62</v>
+      </c>
+      <c r="C10" t="s">
+        <v>47</v>
+      </c>
+      <c r="D10" t="s">
+        <v>63</v>
+      </c>
+      <c r="H10" s="4">
+        <v>42824.913078703707</v>
+      </c>
+      <c r="I10" s="4">
+        <v>42825.600590277776</v>
+      </c>
+      <c r="J10">
+        <v>59401</v>
+      </c>
+      <c r="K10" t="s">
+        <v>2</v>
+      </c>
+      <c r="L10" t="s">
+        <v>3</v>
+      </c>
+      <c r="M10" s="1">
+        <v>1.002</v>
+      </c>
+      <c r="N10">
+        <v>-1.87399999999989</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>64</v>
+      </c>
+      <c r="B11" t="s">
+        <v>65</v>
+      </c>
+      <c r="C11" t="s">
+        <v>43</v>
+      </c>
+      <c r="D11" t="s">
+        <v>57</v>
+      </c>
+      <c r="H11" s="4">
+        <v>42828.798495370371</v>
+      </c>
+      <c r="I11" s="4">
+        <v>42829.597812499997</v>
+      </c>
+      <c r="J11">
+        <v>69061</v>
+      </c>
+      <c r="K11" t="s">
+        <v>2</v>
+      </c>
+      <c r="L11" t="s">
+        <v>1</v>
+      </c>
+      <c r="M11" s="1">
+        <v>2.0249999999999999</v>
+      </c>
+      <c r="N11">
+        <v>2.5560000000000498</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>66</v>
+      </c>
+      <c r="B12" t="s">
+        <v>67</v>
+      </c>
+      <c r="C12" t="s">
+        <v>47</v>
+      </c>
+      <c r="D12" t="s">
+        <v>68</v>
+      </c>
+      <c r="H12" s="4">
+        <v>42830.888796296298</v>
+      </c>
+      <c r="I12" s="4">
+        <v>42831.486145833333</v>
+      </c>
+      <c r="J12">
+        <v>51611</v>
+      </c>
+      <c r="K12" t="s">
+        <v>2</v>
+      </c>
+      <c r="L12" t="s">
+        <v>3</v>
+      </c>
+      <c r="M12" s="1">
+        <v>-1.0049999999999999</v>
+      </c>
+      <c r="N12">
+        <v>-1.71399999999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>69</v>
+      </c>
+      <c r="B13" t="s">
+        <v>70</v>
+      </c>
+      <c r="C13" t="s">
+        <v>47</v>
+      </c>
+      <c r="D13" t="s">
+        <v>71</v>
+      </c>
+      <c r="H13" s="4">
+        <v>42832.732569444444</v>
+      </c>
+      <c r="I13" s="4">
+        <v>42833.208391203705</v>
+      </c>
+      <c r="J13">
+        <v>41111</v>
+      </c>
+      <c r="K13" t="s">
+        <v>2</v>
+      </c>
+      <c r="L13" t="s">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>-0.113</v>
+      </c>
+      <c r="N13">
+        <v>-3.32699999999996</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>72</v>
+      </c>
+      <c r="B14" t="s">
+        <v>73</v>
+      </c>
+      <c r="C14" t="s">
+        <v>43</v>
+      </c>
+      <c r="D14" t="s">
+        <v>74</v>
+      </c>
+      <c r="H14" s="4">
+        <v>42836.673495370371</v>
+      </c>
+      <c r="I14" s="4">
+        <v>42837.663090277776</v>
+      </c>
+      <c r="J14">
+        <v>85501</v>
+      </c>
+      <c r="K14" t="s">
+        <v>2</v>
+      </c>
+      <c r="L14" t="s">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>0.26600000000000001</v>
+      </c>
+      <c r="N14">
+        <v>-0.75750000000003903</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>75</v>
+      </c>
+      <c r="B15" t="s">
+        <v>76</v>
+      </c>
+      <c r="C15" t="s">
+        <v>47</v>
+      </c>
+      <c r="D15" t="s">
+        <v>77</v>
+      </c>
+      <c r="H15" s="4">
+        <v>42840.107546296298</v>
+      </c>
+      <c r="I15" s="4">
+        <v>42840.208368055559</v>
+      </c>
+      <c r="J15">
+        <v>8711</v>
+      </c>
+      <c r="K15" t="s">
+        <v>2</v>
+      </c>
+      <c r="L15" t="s">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>-0.14699999999999999</v>
+      </c>
+      <c r="N15">
+        <v>-2.8580000000000001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>78</v>
+      </c>
+      <c r="B16" t="s">
+        <v>79</v>
+      </c>
+      <c r="C16" t="s">
+        <v>43</v>
+      </c>
+      <c r="D16" t="s">
+        <v>60</v>
+      </c>
+      <c r="H16" s="4">
+        <v>42845.951273148145</v>
+      </c>
+      <c r="I16" s="4">
+        <v>42846.274201388886</v>
+      </c>
+      <c r="J16">
+        <v>27901</v>
+      </c>
+      <c r="K16" t="s">
+        <v>2</v>
+      </c>
+      <c r="L16" t="s">
+        <v>3</v>
+      </c>
+      <c r="M16">
+        <v>0.28199999999999997</v>
+      </c>
+      <c r="N16">
+        <v>8.2559999999999096</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>80</v>
+      </c>
+      <c r="B17" t="s">
+        <v>81</v>
+      </c>
+      <c r="C17" t="s">
+        <v>47</v>
+      </c>
+      <c r="D17" t="s">
+        <v>82</v>
+      </c>
+      <c r="H17" s="4">
+        <v>42847.114490740743</v>
+      </c>
+      <c r="I17" s="4">
+        <v>42847.208368055559</v>
+      </c>
+      <c r="J17">
+        <v>8111</v>
+      </c>
+      <c r="K17" t="s">
+        <v>2</v>
+      </c>
+      <c r="L17" t="s">
+        <v>1</v>
+      </c>
+      <c r="M17" s="1">
+        <v>-0.105</v>
+      </c>
+      <c r="N17">
+        <v>9.6079999999999597</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>83</v>
+      </c>
+      <c r="B18" t="s">
+        <v>84</v>
+      </c>
+      <c r="C18" t="s">
+        <v>47</v>
+      </c>
+      <c r="D18" t="s">
+        <v>85</v>
+      </c>
+      <c r="H18" s="4">
+        <v>42852.902662037035</v>
+      </c>
+      <c r="I18" s="4">
+        <v>42853.961701388886</v>
+      </c>
+      <c r="J18">
+        <v>91501</v>
+      </c>
+      <c r="K18" t="s">
+        <v>2</v>
+      </c>
+      <c r="L18" t="s">
+        <v>3</v>
+      </c>
+      <c r="M18">
+        <v>0.20100000000000001</v>
+      </c>
+      <c r="N18">
+        <v>6.4054999999998596</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>86</v>
+      </c>
+      <c r="B19" t="s">
+        <v>87</v>
+      </c>
+      <c r="C19" t="s">
+        <v>47</v>
+      </c>
+      <c r="D19" t="s">
+        <v>88</v>
+      </c>
+      <c r="H19" s="4">
+        <v>42858.97210648148</v>
+      </c>
+      <c r="I19" s="4">
+        <v>42861.208344907405</v>
+      </c>
+      <c r="J19">
+        <v>193211</v>
+      </c>
+      <c r="K19" t="s">
+        <v>2</v>
+      </c>
+      <c r="L19" t="s">
+        <v>3</v>
+      </c>
+      <c r="M19">
+        <v>0.65100000000000002</v>
+      </c>
+      <c r="N19">
+        <v>5.0764999999998697</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>89</v>
+      </c>
+      <c r="B20" t="s">
+        <v>90</v>
+      </c>
+      <c r="C20" t="s">
+        <v>47</v>
+      </c>
+      <c r="D20" t="s">
+        <v>91</v>
+      </c>
+      <c r="H20" s="4">
+        <v>42864.121412037035</v>
+      </c>
+      <c r="I20" s="4">
+        <v>42864.767256944448</v>
+      </c>
+      <c r="J20">
+        <v>55801</v>
+      </c>
+      <c r="K20" t="s">
+        <v>2</v>
+      </c>
+      <c r="L20" t="s">
+        <v>3</v>
+      </c>
+      <c r="M20">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="N20">
+        <v>5.3704999999999501</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>92</v>
+      </c>
+      <c r="B21" t="s">
+        <v>93</v>
+      </c>
+      <c r="C21" t="s">
+        <v>47</v>
+      </c>
+      <c r="D21" t="s">
+        <v>94</v>
+      </c>
+      <c r="H21" s="4">
+        <v>42872.100578703707</v>
+      </c>
+      <c r="I21" s="4">
+        <v>42872.704756944448</v>
+      </c>
+      <c r="J21">
+        <v>52201</v>
+      </c>
+      <c r="K21" t="s">
+        <v>2</v>
+      </c>
+      <c r="L21" t="s">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>0.92500000000000004</v>
+      </c>
+      <c r="N21">
+        <v>-3.7420000000000302</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>95</v>
+      </c>
+      <c r="B22" t="s">
+        <v>96</v>
+      </c>
+      <c r="C22" t="s">
+        <v>43</v>
+      </c>
+      <c r="D22" t="s">
+        <v>97</v>
+      </c>
+      <c r="H22" s="4">
+        <v>42874.954768518517</v>
+      </c>
+      <c r="I22" s="4">
+        <v>42875.208368055559</v>
+      </c>
+      <c r="J22">
+        <v>21911</v>
+      </c>
+      <c r="K22" t="s">
+        <v>2</v>
+      </c>
+      <c r="L22" t="s">
+        <v>3</v>
+      </c>
+      <c r="M22" s="1">
+        <v>-0.27800000000000002</v>
+      </c>
+      <c r="N22">
+        <v>-6.1615000000000997</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>98</v>
+      </c>
+      <c r="B23" t="s">
+        <v>99</v>
+      </c>
+      <c r="C23" t="s">
+        <v>47</v>
+      </c>
+      <c r="D23" t="s">
+        <v>44</v>
+      </c>
+      <c r="H23" s="4">
+        <v>42878.006828703707</v>
+      </c>
+      <c r="I23" s="4">
+        <v>42878.676979166667</v>
+      </c>
+      <c r="J23">
+        <v>57901</v>
+      </c>
+      <c r="K23" t="s">
+        <v>2</v>
+      </c>
+      <c r="L23" t="s">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>-7.4999999999999997E-2</v>
+      </c>
+      <c r="N23">
+        <v>-5.3854999999999702</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>100</v>
+      </c>
+      <c r="B24" t="s">
+        <v>101</v>
+      </c>
+      <c r="C24" t="s">
+        <v>43</v>
+      </c>
+      <c r="D24" t="s">
+        <v>102</v>
+      </c>
+      <c r="H24" s="4">
+        <v>42879.020740740743</v>
+      </c>
+      <c r="I24" s="4">
+        <v>42881.767743055556</v>
+      </c>
+      <c r="J24">
+        <v>237341</v>
+      </c>
+      <c r="K24" t="s">
+        <v>2</v>
+      </c>
+      <c r="L24" t="s">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>2.0270000000000001</v>
+      </c>
+      <c r="N24">
+        <v>-1.8505000000001</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>103</v>
+      </c>
+      <c r="B25" t="s">
+        <v>104</v>
+      </c>
+      <c r="C25" t="s">
+        <v>43</v>
+      </c>
+      <c r="D25" t="s">
+        <v>105</v>
+      </c>
+      <c r="H25" s="4">
+        <v>42884.94085648148</v>
+      </c>
+      <c r="I25" s="4">
+        <v>42885.534618055557</v>
+      </c>
+      <c r="J25">
+        <v>51301</v>
+      </c>
+      <c r="K25" t="s">
+        <v>2</v>
+      </c>
+      <c r="L25" t="s">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>0.61099999999999999</v>
+      </c>
+      <c r="N25">
+        <v>-4.4005000000001502</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>106</v>
+      </c>
+      <c r="B26" t="s">
+        <v>107</v>
+      </c>
+      <c r="C26" t="s">
+        <v>43</v>
+      </c>
+      <c r="D26" t="s">
+        <v>108</v>
+      </c>
+      <c r="H26" s="4">
+        <v>42887.742962962962</v>
+      </c>
+      <c r="I26" s="4">
+        <v>42888.663113425922</v>
+      </c>
+      <c r="J26">
+        <v>79501</v>
+      </c>
+      <c r="K26" t="s">
+        <v>2</v>
+      </c>
+      <c r="L26" t="s">
+        <v>3</v>
+      </c>
+      <c r="M26" s="1">
+        <v>0.32500000000000001</v>
+      </c>
+      <c r="N26">
+        <v>-4.64400000000012</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>109</v>
+      </c>
+      <c r="B27" t="s">
+        <v>110</v>
+      </c>
+      <c r="C27" t="s">
+        <v>43</v>
+      </c>
+      <c r="D27" t="s">
+        <v>111</v>
+      </c>
+      <c r="H27" s="4">
+        <v>42892.110995370371</v>
+      </c>
+      <c r="I27" s="4">
+        <v>42892.534618055557</v>
+      </c>
+      <c r="J27">
+        <v>36601</v>
+      </c>
+      <c r="K27" t="s">
+        <v>2</v>
+      </c>
+      <c r="L27" t="s">
+        <v>1</v>
+      </c>
+      <c r="M27" s="1">
+        <v>0.52100000000000002</v>
+      </c>
+      <c r="N27">
+        <v>0.10699999999999001</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>112</v>
+      </c>
+      <c r="B28" t="s">
+        <v>113</v>
+      </c>
+      <c r="C28" t="s">
+        <v>47</v>
+      </c>
+      <c r="D28" t="s">
+        <v>114</v>
+      </c>
+      <c r="H28" s="4">
+        <v>42905.999884259261</v>
+      </c>
+      <c r="I28" s="4">
+        <v>42907.691446759258</v>
+      </c>
+      <c r="J28">
+        <v>146151</v>
+      </c>
+      <c r="K28" t="s">
+        <v>2</v>
+      </c>
+      <c r="L28" t="s">
+        <v>1</v>
+      </c>
+      <c r="M28" s="1">
+        <v>2.0339999999999998</v>
+      </c>
+      <c r="N28">
+        <v>5.2870000000000896</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>115</v>
+      </c>
+      <c r="B29" t="s">
+        <v>116</v>
+      </c>
+      <c r="C29" t="s">
+        <v>43</v>
+      </c>
+      <c r="D29" t="s">
+        <v>117</v>
+      </c>
+      <c r="H29" s="4">
+        <v>42909.670046296298</v>
+      </c>
+      <c r="I29" s="4">
+        <v>42910.208368055559</v>
+      </c>
+      <c r="J29">
+        <v>46511</v>
+      </c>
+      <c r="K29" t="s">
+        <v>2</v>
+      </c>
+      <c r="L29" t="s">
+        <v>3</v>
+      </c>
+      <c r="M29" s="1">
+        <v>-0.184</v>
+      </c>
+      <c r="N29">
+        <v>-1.5509999999999</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>118</v>
+      </c>
+      <c r="B30" t="s">
+        <v>119</v>
+      </c>
+      <c r="C30" t="s">
+        <v>47</v>
+      </c>
+      <c r="D30" t="s">
+        <v>44</v>
+      </c>
+      <c r="H30" s="4">
+        <v>42912.670023148145</v>
+      </c>
+      <c r="I30" s="4">
+        <v>42914.138784722221</v>
+      </c>
+      <c r="J30">
+        <v>126901</v>
+      </c>
+      <c r="K30" t="s">
+        <v>2</v>
+      </c>
+      <c r="L30" t="s">
+        <v>3</v>
+      </c>
+      <c r="M30" s="1">
+        <v>1.3640000000000001</v>
+      </c>
+      <c r="N30">
+        <v>-0.22599999999995399</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>120</v>
+      </c>
+      <c r="B31" t="s">
+        <v>121</v>
+      </c>
+      <c r="C31" t="s">
+        <v>47</v>
+      </c>
+      <c r="D31" t="s">
+        <v>85</v>
+      </c>
+      <c r="H31" s="4">
+        <v>42922.788078703707</v>
+      </c>
+      <c r="I31" s="4">
+        <v>42924.208344907405</v>
+      </c>
+      <c r="J31">
+        <v>122711</v>
+      </c>
+      <c r="K31" t="s">
+        <v>2</v>
+      </c>
+      <c r="L31" t="s">
+        <v>3</v>
+      </c>
+      <c r="M31">
+        <v>-0.27700000000000002</v>
+      </c>
+      <c r="N31">
+        <v>1.52700000000018</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>122</v>
+      </c>
+      <c r="B32" t="s">
+        <v>123</v>
+      </c>
+      <c r="C32" t="s">
+        <v>47</v>
+      </c>
+      <c r="D32" t="s">
+        <v>124</v>
+      </c>
+      <c r="H32" s="4">
+        <v>42934.735995370371</v>
+      </c>
+      <c r="I32" s="4">
+        <v>42934.954756944448</v>
+      </c>
+      <c r="J32">
+        <v>18901</v>
+      </c>
+      <c r="K32" t="s">
+        <v>2</v>
+      </c>
+      <c r="L32" t="s">
+        <v>1</v>
+      </c>
+      <c r="M32" s="1">
+        <v>0.40400000000000003</v>
+      </c>
+      <c r="N32">
+        <v>2.7030000000002099</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>125</v>
+      </c>
+      <c r="B33" t="s">
+        <v>126</v>
+      </c>
+      <c r="C33" t="s">
+        <v>43</v>
+      </c>
+      <c r="D33" t="s">
+        <v>127</v>
+      </c>
+      <c r="H33" s="4">
+        <v>42936.989490740743</v>
+      </c>
+      <c r="I33" s="4">
+        <v>42938.163113425922</v>
+      </c>
+      <c r="J33">
+        <v>101401</v>
+      </c>
+      <c r="K33" t="s">
+        <v>2</v>
+      </c>
+      <c r="L33" t="s">
+        <v>1</v>
+      </c>
+      <c r="M33">
+        <v>0.56299999999999994</v>
+      </c>
+      <c r="N33">
+        <v>-3.0924999999998599</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>128</v>
+      </c>
+      <c r="B34" t="s">
+        <v>129</v>
+      </c>
+      <c r="C34" t="s">
+        <v>47</v>
+      </c>
+      <c r="D34" t="s">
+        <v>130</v>
+      </c>
+      <c r="H34" s="4">
+        <v>42941.850578703707</v>
+      </c>
+      <c r="I34" s="4">
+        <v>42941.954756944448</v>
+      </c>
+      <c r="J34">
+        <v>9001</v>
+      </c>
+      <c r="K34" t="s">
+        <v>2</v>
+      </c>
+      <c r="L34" t="s">
+        <v>3</v>
+      </c>
+      <c r="M34" s="1">
+        <v>0.23499999999999999</v>
+      </c>
+      <c r="N34">
+        <v>-3.8219999999999601</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>131</v>
+      </c>
+      <c r="B35" t="s">
+        <v>132</v>
+      </c>
+      <c r="C35" t="s">
+        <v>47</v>
+      </c>
+      <c r="D35" t="s">
+        <v>133</v>
+      </c>
+      <c r="H35" s="4">
+        <v>42942.989490740743</v>
+      </c>
+      <c r="I35" s="4">
+        <v>42944.403854166667</v>
+      </c>
+      <c r="J35">
+        <v>122201</v>
+      </c>
+      <c r="K35" t="s">
+        <v>2</v>
+      </c>
+      <c r="L35" t="s">
+        <v>3</v>
+      </c>
+      <c r="M35" s="1">
+        <v>-1.0029999999999999</v>
+      </c>
+      <c r="N35">
+        <v>-0.16450000000001599</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>134</v>
+      </c>
+      <c r="B36" t="s">
+        <v>135</v>
+      </c>
+      <c r="C36" t="s">
+        <v>47</v>
+      </c>
+      <c r="D36" t="s">
+        <v>44</v>
+      </c>
+      <c r="H36" s="4">
+        <v>42948.749884259261</v>
+      </c>
+      <c r="I36" s="4">
+        <v>42949.930451388886</v>
+      </c>
+      <c r="J36">
+        <v>102001</v>
+      </c>
+      <c r="K36" t="s">
+        <v>2</v>
+      </c>
+      <c r="L36" t="s">
+        <v>3</v>
+      </c>
+      <c r="M36" s="1">
+        <v>0.255</v>
+      </c>
+      <c r="N36">
+        <v>-0.76600000000001001</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>136</v>
+      </c>
+      <c r="B37" t="s">
+        <v>137</v>
+      </c>
+      <c r="C37" t="s">
+        <v>43</v>
+      </c>
+      <c r="D37" t="s">
+        <v>88</v>
+      </c>
+      <c r="H37" s="4">
+        <v>42950.836712962962</v>
+      </c>
+      <c r="I37" s="4">
+        <v>42950.958483796298</v>
+      </c>
+      <c r="J37">
+        <v>10521</v>
+      </c>
+      <c r="K37" t="s">
+        <v>2</v>
+      </c>
+      <c r="L37" t="s">
+        <v>3</v>
+      </c>
+      <c r="M37">
+        <v>-1.1160000000000001</v>
+      </c>
+      <c r="N37">
+        <v>2.4969999999999901</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>138</v>
+      </c>
+      <c r="B38" t="s">
+        <v>139</v>
+      </c>
+      <c r="C38" t="s">
+        <v>43</v>
+      </c>
+      <c r="D38" t="s">
+        <v>140</v>
+      </c>
+      <c r="H38" s="4">
+        <v>42955.826273148145</v>
+      </c>
+      <c r="I38" s="4">
+        <v>42956.183923611112</v>
+      </c>
+      <c r="J38">
+        <v>30901</v>
+      </c>
+      <c r="K38" t="s">
+        <v>2</v>
+      </c>
+      <c r="L38" t="s">
+        <v>1</v>
+      </c>
+      <c r="M38">
+        <v>0.29299999999999998</v>
+      </c>
+      <c r="N38">
+        <v>-4.8060000000002301</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>141</v>
+      </c>
+      <c r="B39" t="s">
+        <v>142</v>
+      </c>
+      <c r="C39" t="s">
+        <v>43</v>
+      </c>
+      <c r="D39" t="s">
+        <v>143</v>
+      </c>
+      <c r="H39" s="4">
+        <v>42957.968657407408</v>
+      </c>
+      <c r="I39" s="4">
+        <v>42958.617974537039</v>
+      </c>
+      <c r="J39">
+        <v>56101</v>
+      </c>
+      <c r="K39" t="s">
+        <v>2</v>
+      </c>
+      <c r="L39" t="s">
+        <v>1</v>
+      </c>
+      <c r="M39">
+        <v>0.34799999999999998</v>
+      </c>
+      <c r="N39">
+        <v>-4.1204999999998897</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>144</v>
+      </c>
+      <c r="B40" t="s">
+        <v>145</v>
+      </c>
+      <c r="C40" t="s">
+        <v>43</v>
+      </c>
+      <c r="D40" t="s">
+        <v>146</v>
+      </c>
+      <c r="H40" s="4">
+        <v>42968.631828703707</v>
+      </c>
+      <c r="I40" s="4">
+        <v>42971.093645833331</v>
+      </c>
+      <c r="J40">
+        <v>212701</v>
+      </c>
+      <c r="K40" t="s">
+        <v>2</v>
+      </c>
+      <c r="L40" t="s">
+        <v>1</v>
+      </c>
+      <c r="M40">
+        <v>0.78300000000000003</v>
+      </c>
+      <c r="N40">
+        <v>-4.4879999999999498</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>147</v>
+      </c>
+      <c r="B41" t="s">
+        <v>148</v>
+      </c>
+      <c r="C41" t="s">
+        <v>43</v>
+      </c>
+      <c r="D41" t="s">
+        <v>88</v>
+      </c>
+      <c r="H41" s="4">
+        <v>42971.944351851853</v>
+      </c>
+      <c r="I41" s="4">
+        <v>42973.208368055559</v>
+      </c>
+      <c r="J41">
+        <v>109211</v>
+      </c>
+      <c r="K41" t="s">
+        <v>2</v>
+      </c>
+      <c r="L41" t="s">
+        <v>1</v>
+      </c>
+      <c r="M41">
+        <v>-0.69499999999999995</v>
+      </c>
+      <c r="N41">
+        <v>-2.7924999999999298</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>149</v>
+      </c>
+      <c r="B42" t="s">
+        <v>150</v>
+      </c>
+      <c r="C42" t="s">
+        <v>47</v>
+      </c>
+      <c r="D42" t="s">
+        <v>151</v>
+      </c>
+      <c r="H42" s="4">
+        <v>42975.850578703707</v>
+      </c>
+      <c r="I42" s="4">
+        <v>42976.306030092594</v>
+      </c>
+      <c r="J42">
+        <v>39351</v>
+      </c>
+      <c r="K42" t="s">
+        <v>2</v>
+      </c>
+      <c r="L42" t="s">
+        <v>3</v>
+      </c>
+      <c r="M42">
+        <v>-1.0029999999999999</v>
+      </c>
+      <c r="N42">
+        <v>0.74399999999982802</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>152</v>
+      </c>
+      <c r="B43" t="s">
+        <v>153</v>
+      </c>
+      <c r="C43" t="s">
+        <v>47</v>
+      </c>
+      <c r="D43" t="s">
+        <v>54</v>
+      </c>
+      <c r="H43" s="4">
+        <v>42982.642245370371</v>
+      </c>
+      <c r="I43" s="4">
+        <v>42987.208344907405</v>
+      </c>
+      <c r="J43">
+        <v>394511</v>
+      </c>
+      <c r="K43" t="s">
+        <v>2</v>
+      </c>
+      <c r="L43" t="s">
+        <v>1</v>
+      </c>
+      <c r="M43" s="1">
+        <v>-0.53300000000000003</v>
+      </c>
+      <c r="N43">
+        <v>3.4040000000000399</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>154</v>
+      </c>
+      <c r="B44" t="s">
+        <v>155</v>
+      </c>
+      <c r="C44" t="s">
+        <v>47</v>
+      </c>
+      <c r="D44" t="s">
+        <v>156</v>
+      </c>
+      <c r="H44" s="4">
+        <v>42992.086689814816</v>
+      </c>
+      <c r="I44" s="4">
+        <v>42992.898043981484</v>
+      </c>
+      <c r="J44">
+        <v>70101</v>
+      </c>
+      <c r="K44" t="s">
+        <v>2</v>
+      </c>
+      <c r="L44" t="s">
+        <v>3</v>
+      </c>
+      <c r="M44">
+        <v>2.0110000000000001</v>
+      </c>
+      <c r="N44">
+        <v>9.8424999999999301</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>157</v>
+      </c>
+      <c r="B45" t="s">
+        <v>158</v>
+      </c>
+      <c r="C45" t="s">
+        <v>43</v>
+      </c>
+      <c r="D45" t="s">
+        <v>159</v>
+      </c>
+      <c r="H45" s="4">
+        <v>43003.711689814816</v>
+      </c>
+      <c r="I45" s="4">
+        <v>43003.885312500002</v>
+      </c>
+      <c r="J45">
+        <v>15001</v>
+      </c>
+      <c r="K45" t="s">
+        <v>2</v>
+      </c>
+      <c r="L45" t="s">
+        <v>1</v>
+      </c>
+      <c r="M45" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="N45">
+        <v>3.5649999999999999</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>160</v>
+      </c>
+      <c r="B46" t="s">
+        <v>161</v>
+      </c>
+      <c r="C46" t="s">
+        <v>43</v>
+      </c>
+      <c r="D46" t="s">
+        <v>162</v>
+      </c>
+      <c r="H46" s="4">
+        <v>43004.003379629627</v>
+      </c>
+      <c r="I46" s="4">
+        <v>43004.069363425922</v>
+      </c>
+      <c r="J46">
+        <v>5701</v>
+      </c>
+      <c r="K46" t="s">
+        <v>2</v>
+      </c>
+      <c r="L46" t="s">
+        <v>1</v>
+      </c>
+      <c r="M46" s="1">
+        <v>0.60899999999999999</v>
+      </c>
+      <c r="N46">
+        <v>3.5649999999999999</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>163</v>
+      </c>
+      <c r="B47" t="s">
+        <v>164</v>
+      </c>
+      <c r="C47" t="s">
+        <v>43</v>
+      </c>
+      <c r="D47" t="s">
+        <v>165</v>
+      </c>
+      <c r="H47" s="4">
+        <v>43005.760347222225</v>
+      </c>
+      <c r="I47" s="4">
+        <v>43007.768113425926</v>
+      </c>
+      <c r="J47">
+        <v>173471</v>
+      </c>
+      <c r="K47" t="s">
+        <v>2</v>
+      </c>
+      <c r="L47" t="s">
+        <v>3</v>
+      </c>
+      <c r="M47" s="1">
+        <v>-1.0089999999999999</v>
+      </c>
+      <c r="N47">
+        <v>-3.2499999999998801</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>166</v>
+      </c>
+      <c r="B48" t="s">
+        <v>167</v>
+      </c>
+      <c r="C48" t="s">
+        <v>43</v>
+      </c>
+      <c r="D48" t="s">
+        <v>168</v>
+      </c>
+      <c r="H48" s="4">
+        <v>43010.812384259261</v>
+      </c>
+      <c r="I48" s="4">
+        <v>43010.951284722221</v>
+      </c>
+      <c r="J48">
+        <v>12001</v>
+      </c>
+      <c r="K48" t="s">
+        <v>2</v>
+      </c>
+      <c r="L48" t="s">
+        <v>1</v>
+      </c>
+      <c r="M48" s="1">
+        <v>0.26600000000000001</v>
+      </c>
+      <c r="N48">
+        <v>0.129500000000183</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>169</v>
+      </c>
+      <c r="B49" t="s">
+        <v>170</v>
+      </c>
+      <c r="C49" t="s">
+        <v>43</v>
+      </c>
+      <c r="D49" t="s">
+        <v>57</v>
+      </c>
+      <c r="H49" s="4">
+        <v>43012.690879629627</v>
+      </c>
+      <c r="I49" s="4">
+        <v>43013.947835648149</v>
+      </c>
+      <c r="J49">
+        <v>108601</v>
+      </c>
+      <c r="K49" t="s">
+        <v>2</v>
+      </c>
+      <c r="L49" t="s">
+        <v>1</v>
+      </c>
+      <c r="M49">
+        <v>1.0249999999999999</v>
+      </c>
+      <c r="N49">
+        <v>-4.5895000000000401</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>171</v>
+      </c>
+      <c r="B50" t="s">
+        <v>172</v>
+      </c>
+      <c r="C50" t="s">
+        <v>43</v>
+      </c>
+      <c r="D50" t="s">
+        <v>133</v>
+      </c>
+      <c r="H50" s="4">
+        <v>43014.996458333335</v>
+      </c>
+      <c r="I50" s="4">
+        <v>43015.208391203705</v>
+      </c>
+      <c r="J50">
+        <v>18311</v>
+      </c>
+      <c r="K50" t="s">
+        <v>2</v>
+      </c>
+      <c r="L50" t="s">
+        <v>1</v>
+      </c>
+      <c r="M50">
+        <v>0.121</v>
+      </c>
+      <c r="N50">
+        <v>-5.41849999999988</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>173</v>
+      </c>
+      <c r="B51" t="s">
+        <v>174</v>
+      </c>
+      <c r="C51" t="s">
+        <v>47</v>
+      </c>
+      <c r="D51" t="s">
+        <v>175</v>
+      </c>
+      <c r="H51" s="4">
+        <v>43020.02071759259</v>
+      </c>
+      <c r="I51" s="4">
+        <v>43020.909618055557</v>
+      </c>
+      <c r="J51">
+        <v>76801</v>
+      </c>
+      <c r="K51" t="s">
+        <v>2</v>
+      </c>
+      <c r="L51" t="s">
+        <v>1</v>
+      </c>
+      <c r="M51">
+        <v>0.59799999999999998</v>
+      </c>
+      <c r="N51">
+        <v>-1.95199999999995</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>176</v>
+      </c>
+      <c r="B52" t="s">
+        <v>177</v>
+      </c>
+      <c r="C52" t="s">
+        <v>47</v>
+      </c>
+      <c r="D52" t="s">
+        <v>57</v>
+      </c>
+      <c r="H52" s="4">
+        <v>43024.899189814816</v>
+      </c>
+      <c r="I52" s="4">
+        <v>43027.305219907408</v>
+      </c>
+      <c r="J52">
+        <v>207881</v>
+      </c>
+      <c r="K52" t="s">
+        <v>2</v>
+      </c>
+      <c r="L52" t="s">
+        <v>1</v>
+      </c>
+      <c r="M52" s="1">
+        <v>-1.016</v>
+      </c>
+      <c r="N52">
+        <v>2.0335000000001902</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>178</v>
+      </c>
+      <c r="B53" t="s">
+        <v>179</v>
+      </c>
+      <c r="C53" t="s">
+        <v>47</v>
+      </c>
+      <c r="D53" t="s">
+        <v>180</v>
+      </c>
+      <c r="H53" s="4">
+        <v>43033.15960648148</v>
+      </c>
+      <c r="I53" s="4">
+        <v>43033.746539351851</v>
+      </c>
+      <c r="J53">
+        <v>50711</v>
+      </c>
+      <c r="K53" t="s">
+        <v>2</v>
+      </c>
+      <c r="L53" t="s">
+        <v>1</v>
+      </c>
+      <c r="M53" s="1">
+        <v>-1.03</v>
+      </c>
+      <c r="N53">
+        <v>4.5549999999998896</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>181</v>
+      </c>
+      <c r="B54" t="s">
+        <v>182</v>
+      </c>
+      <c r="C54" t="s">
+        <v>43</v>
+      </c>
+      <c r="D54" t="s">
+        <v>105</v>
+      </c>
+      <c r="H54" s="4">
+        <v>43035.704768518517</v>
+      </c>
+      <c r="I54" s="4">
+        <v>43036.208368055559</v>
+      </c>
+      <c r="J54">
+        <v>43511</v>
+      </c>
+      <c r="K54" t="s">
+        <v>2</v>
+      </c>
+      <c r="L54" t="s">
+        <v>1</v>
+      </c>
+      <c r="M54" s="1">
+        <v>0.16</v>
+      </c>
+      <c r="N54">
+        <v>0.53749999999984999</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>183</v>
+      </c>
+      <c r="B55" t="s">
+        <v>184</v>
+      </c>
+      <c r="C55" t="s">
+        <v>47</v>
+      </c>
+      <c r="D55" t="s">
+        <v>82</v>
+      </c>
+      <c r="H55" s="4">
+        <v>43039.920023148145</v>
+      </c>
+      <c r="I55" s="4">
+        <v>43040.975590277776</v>
+      </c>
+      <c r="J55">
+        <v>91201</v>
+      </c>
+      <c r="K55" t="s">
+        <v>2</v>
+      </c>
+      <c r="L55" t="s">
+        <v>3</v>
+      </c>
+      <c r="M55" s="1">
+        <v>1.2849999999999999</v>
+      </c>
+      <c r="N55">
+        <v>-1.6909999999999099</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>185</v>
+      </c>
+      <c r="B56" t="s">
+        <v>186</v>
+      </c>
+      <c r="C56" t="s">
+        <v>47</v>
+      </c>
+      <c r="D56" t="s">
+        <v>187</v>
+      </c>
+      <c r="H56" s="4">
+        <v>43041.885324074072</v>
+      </c>
+      <c r="I56" s="4">
+        <v>43042.069363425922</v>
+      </c>
+      <c r="J56">
+        <v>15901</v>
+      </c>
+      <c r="K56" t="s">
+        <v>2</v>
+      </c>
+      <c r="L56" t="s">
+        <v>1</v>
+      </c>
+      <c r="M56" s="1">
+        <v>0.64800000000000002</v>
+      </c>
+      <c r="N56">
+        <v>4.2265000000003399</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>188</v>
+      </c>
+      <c r="B57" t="s">
+        <v>189</v>
+      </c>
+      <c r="C57" t="s">
+        <v>43</v>
+      </c>
+      <c r="D57" t="s">
+        <v>190</v>
+      </c>
+      <c r="H57" s="4">
+        <v>43045.98946759259</v>
+      </c>
+      <c r="I57" s="4">
+        <v>43046.854062500002</v>
+      </c>
+      <c r="J57">
+        <v>74701</v>
+      </c>
+      <c r="K57" t="s">
+        <v>2</v>
+      </c>
+      <c r="L57" t="s">
+        <v>3</v>
+      </c>
+      <c r="M57">
+        <v>0.22900000000000001</v>
+      </c>
+      <c r="N57">
+        <v>1.0519999999999099</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>191</v>
+      </c>
+      <c r="B58" t="s">
+        <v>192</v>
+      </c>
+      <c r="C58" t="s">
+        <v>43</v>
+      </c>
+      <c r="D58" t="s">
+        <v>133</v>
+      </c>
+      <c r="H58" s="4">
+        <v>43047.729074074072</v>
+      </c>
+      <c r="I58" s="4">
+        <v>43048.045057870368</v>
+      </c>
+      <c r="J58">
+        <v>27301</v>
+      </c>
+      <c r="K58" t="s">
+        <v>2</v>
+      </c>
+      <c r="L58" t="s">
+        <v>1</v>
+      </c>
+      <c r="M58">
+        <v>0.52500000000000002</v>
+      </c>
+      <c r="N58">
+        <v>-3.2475000000000298</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>193</v>
+      </c>
+      <c r="B59" t="s">
+        <v>194</v>
+      </c>
+      <c r="C59" t="s">
+        <v>47</v>
+      </c>
+      <c r="D59" t="s">
+        <v>162</v>
+      </c>
+      <c r="H59" s="4">
+        <v>43049.041597222225</v>
+      </c>
+      <c r="I59" s="4">
+        <v>43050.208391203705</v>
+      </c>
+      <c r="J59">
+        <v>100811</v>
+      </c>
+      <c r="K59" t="s">
+        <v>2</v>
+      </c>
+      <c r="L59" t="s">
+        <v>1</v>
+      </c>
+      <c r="M59">
+        <v>-0.82099999999999995</v>
+      </c>
+      <c r="N59">
+        <v>-2.6329999999999099</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>195</v>
+      </c>
+      <c r="B60" t="s">
+        <v>196</v>
+      </c>
+      <c r="C60" t="s">
+        <v>47</v>
+      </c>
+      <c r="D60" t="s">
+        <v>82</v>
+      </c>
+      <c r="H60" s="4">
+        <v>43054.038078703707</v>
+      </c>
+      <c r="I60" s="4">
+        <v>43054.385312500002</v>
+      </c>
+      <c r="J60">
+        <v>30001</v>
+      </c>
+      <c r="K60" t="s">
+        <v>2</v>
+      </c>
+      <c r="L60" t="s">
+        <v>3</v>
+      </c>
+      <c r="M60" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="N60">
+        <v>-1.7305000000000801</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>197</v>
+      </c>
+      <c r="B61" t="s">
+        <v>198</v>
+      </c>
+      <c r="C61" t="s">
+        <v>43</v>
+      </c>
+      <c r="D61" t="s">
+        <v>199</v>
+      </c>
+      <c r="H61" s="4">
+        <v>43054.784629629627</v>
+      </c>
+      <c r="I61" s="4">
+        <v>43055.789155092592</v>
+      </c>
+      <c r="J61">
+        <v>86791</v>
+      </c>
+      <c r="K61" t="s">
+        <v>2</v>
+      </c>
+      <c r="L61" t="s">
+        <v>1</v>
+      </c>
+      <c r="M61">
+        <v>-1.0489999999999999</v>
+      </c>
+      <c r="N61">
+        <v>-9.5000000000049503E-2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>200</v>
+      </c>
+      <c r="B62" t="s">
+        <v>201</v>
+      </c>
+      <c r="C62" t="s">
+        <v>43</v>
+      </c>
+      <c r="D62" t="s">
+        <v>202</v>
+      </c>
+      <c r="H62" s="4">
+        <v>43055.986041666663</v>
+      </c>
+      <c r="I62" s="4">
+        <v>43057.208391203705</v>
+      </c>
+      <c r="J62">
+        <v>105611</v>
+      </c>
+      <c r="K62" t="s">
+        <v>2</v>
+      </c>
+      <c r="L62" t="s">
+        <v>3</v>
+      </c>
+      <c r="M62" s="1">
+        <v>-0.70099999999999996</v>
+      </c>
+      <c r="N62">
+        <v>-1.3399999999999599</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>203</v>
+      </c>
+      <c r="B63" t="s">
+        <v>204</v>
+      </c>
+      <c r="C63" t="s">
+        <v>43</v>
+      </c>
+      <c r="D63" t="s">
+        <v>44</v>
+      </c>
+      <c r="H63" s="4">
+        <v>43060.975578703707</v>
+      </c>
+      <c r="I63" s="4">
+        <v>43064.208344907405</v>
+      </c>
+      <c r="J63">
+        <v>279311</v>
+      </c>
+      <c r="K63" t="s">
+        <v>2</v>
+      </c>
+      <c r="L63" t="s">
+        <v>3</v>
+      </c>
+      <c r="M63" s="1">
+        <v>-2.0000000000099999E-3</v>
+      </c>
+      <c r="N63">
+        <v>-1.1274999999999</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>205</v>
+      </c>
+      <c r="B64" t="s">
+        <v>206</v>
+      </c>
+      <c r="C64" t="s">
+        <v>47</v>
+      </c>
+      <c r="D64" t="s">
+        <v>85</v>
+      </c>
+      <c r="H64" s="4">
+        <v>43066.836689814816</v>
+      </c>
+      <c r="I64" s="4">
+        <v>43068.033692129633</v>
+      </c>
+      <c r="J64">
+        <v>103421</v>
+      </c>
+      <c r="K64" t="s">
+        <v>2</v>
+      </c>
+      <c r="L64" t="s">
+        <v>3</v>
+      </c>
+      <c r="M64" s="1">
+        <v>-1.0249999999999999</v>
+      </c>
+      <c r="N64">
+        <v>-1.45100000000005</v>
+      </c>
+    </row>
+    <row r="65" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>207</v>
+      </c>
+      <c r="B65" t="s">
+        <v>208</v>
+      </c>
+      <c r="C65" t="s">
+        <v>47</v>
+      </c>
+      <c r="D65" t="s">
+        <v>209</v>
+      </c>
+      <c r="H65" s="4">
+        <v>43068.038101851853</v>
+      </c>
+      <c r="I65" s="4">
+        <v>43068.122835648152</v>
+      </c>
+      <c r="J65">
+        <v>7321</v>
+      </c>
+      <c r="K65" t="s">
+        <v>2</v>
+      </c>
+      <c r="L65" t="s">
+        <v>1</v>
+      </c>
+      <c r="M65">
+        <v>-1.0369999999999999</v>
+      </c>
+      <c r="N65">
+        <v>-1.22199999999998</v>
+      </c>
+    </row>
+    <row r="66" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>210</v>
+      </c>
+      <c r="B66" t="s">
+        <v>211</v>
+      </c>
+      <c r="C66" t="s">
+        <v>47</v>
+      </c>
+      <c r="D66" t="s">
+        <v>133</v>
+      </c>
+      <c r="H66" s="4">
+        <v>43084.881828703707</v>
+      </c>
+      <c r="I66" s="4">
+        <v>43085.003368055557</v>
+      </c>
+      <c r="J66">
+        <v>10501</v>
+      </c>
+      <c r="K66" t="s">
+        <v>2</v>
+      </c>
+      <c r="L66" t="s">
+        <v>1</v>
+      </c>
+      <c r="M66">
+        <v>0.20300000000000001</v>
+      </c>
+      <c r="N66">
+        <v>-2.2909999999999</v>
+      </c>
+    </row>
+    <row r="67" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>212</v>
+      </c>
+      <c r="B67" t="s">
+        <v>213</v>
+      </c>
+      <c r="C67" t="s">
+        <v>43</v>
+      </c>
+      <c r="D67" t="s">
+        <v>140</v>
+      </c>
+      <c r="H67" s="4">
+        <v>43089.138773148145</v>
+      </c>
+      <c r="I67" s="4">
+        <v>43090.111006944448</v>
+      </c>
+      <c r="J67">
+        <v>84001</v>
+      </c>
+      <c r="K67" t="s">
+        <v>2</v>
+      </c>
+      <c r="L67" t="s">
+        <v>3</v>
+      </c>
+      <c r="M67" s="1">
+        <v>0.39200000000000002</v>
+      </c>
+      <c r="N67">
+        <v>-2.18299999999984</v>
+      </c>
+    </row>
+    <row r="68" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>214</v>
+      </c>
+      <c r="B68" t="s">
+        <v>215</v>
+      </c>
+      <c r="C68" t="s">
+        <v>43</v>
+      </c>
+      <c r="D68" t="s">
+        <v>88</v>
+      </c>
+      <c r="H68" s="4">
+        <v>43090.944351851853</v>
+      </c>
+      <c r="I68" s="4">
+        <v>43092.208368055559</v>
+      </c>
+      <c r="J68">
+        <v>109211</v>
+      </c>
+      <c r="K68" t="s">
+        <v>2</v>
+      </c>
+      <c r="L68" t="s">
+        <v>3</v>
+      </c>
+      <c r="M68">
+        <v>-0.02</v>
+      </c>
+      <c r="N68">
+        <v>2.4655</v>
+      </c>
+    </row>
+    <row r="69" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>216</v>
+      </c>
+      <c r="B69" t="s">
+        <v>217</v>
+      </c>
+      <c r="C69" t="s">
+        <v>47</v>
+      </c>
+      <c r="D69" t="s">
+        <v>82</v>
+      </c>
+      <c r="H69" s="4">
+        <v>43096.80196759259</v>
+      </c>
+      <c r="I69" s="4">
+        <v>43099.208344907405</v>
+      </c>
+      <c r="J69">
+        <v>207911</v>
+      </c>
+      <c r="K69" t="s">
+        <v>2</v>
+      </c>
+      <c r="L69" t="s">
+        <v>3</v>
+      </c>
+      <c r="M69" s="1">
+        <v>0.29799999999999999</v>
+      </c>
+      <c r="N69">
+        <v>-0.76399999999998303</v>
+      </c>
+    </row>
+    <row r="70" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>218</v>
+      </c>
+      <c r="B70" t="s">
+        <v>219</v>
+      </c>
+      <c r="C70" t="s">
+        <v>47</v>
+      </c>
+      <c r="D70" t="s">
+        <v>57</v>
+      </c>
+      <c r="H70" s="4">
+        <v>43104.718634259261</v>
+      </c>
+      <c r="I70" s="4">
+        <v>43105.60255787037</v>
+      </c>
+      <c r="J70">
+        <v>76371</v>
+      </c>
+      <c r="K70" t="s">
+        <v>2</v>
+      </c>
+      <c r="L70" t="s">
+        <v>1</v>
+      </c>
+      <c r="M70" s="1">
+        <v>-1.0049999999999999</v>
+      </c>
+      <c r="N70">
+        <v>1.2530000000000501</v>
+      </c>
+    </row>
+    <row r="71" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>220</v>
+      </c>
+      <c r="B71" t="s">
+        <v>221</v>
+      </c>
+      <c r="C71" t="s">
+        <v>47</v>
+      </c>
+      <c r="D71" t="s">
+        <v>140</v>
+      </c>
+      <c r="H71" s="4">
+        <v>43109.749884259261</v>
+      </c>
+      <c r="I71" s="4">
+        <v>43109.982534722221</v>
+      </c>
+      <c r="J71">
+        <v>20101</v>
+      </c>
+      <c r="K71" t="s">
+        <v>2</v>
+      </c>
+      <c r="L71" t="s">
+        <v>1</v>
+      </c>
+      <c r="M71" s="1">
+        <v>0.187</v>
+      </c>
+      <c r="N71">
+        <v>2.9879999999999298</v>
+      </c>
+    </row>
+    <row r="72" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>222</v>
+      </c>
+      <c r="B72" t="s">
+        <v>223</v>
+      </c>
+      <c r="C72" t="s">
+        <v>47</v>
+      </c>
+      <c r="D72" t="s">
+        <v>224</v>
+      </c>
+      <c r="H72" s="4">
+        <v>43110.656157407408</v>
+      </c>
+      <c r="I72" s="4">
+        <v>43110.836724537039</v>
+      </c>
+      <c r="J72">
+        <v>15601</v>
+      </c>
+      <c r="K72" t="s">
+        <v>2</v>
+      </c>
+      <c r="L72" t="s">
+        <v>1</v>
+      </c>
+      <c r="M72" s="1">
+        <v>0.505</v>
+      </c>
+      <c r="N72">
+        <v>1.5574999999999599</v>
+      </c>
+    </row>
+    <row r="73" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>225</v>
+      </c>
+      <c r="B73" t="s">
+        <v>226</v>
+      </c>
+      <c r="C73" t="s">
+        <v>47</v>
+      </c>
+      <c r="D73" t="s">
+        <v>227</v>
+      </c>
+      <c r="H73" s="4">
+        <v>43111.996458333335</v>
+      </c>
+      <c r="I73" s="4">
+        <v>43112.256886574076</v>
+      </c>
+      <c r="J73">
+        <v>22501</v>
+      </c>
+      <c r="K73" t="s">
+        <v>2</v>
+      </c>
+      <c r="L73" t="s">
+        <v>1</v>
+      </c>
+      <c r="M73">
+        <v>0.316</v>
+      </c>
+      <c r="N73">
+        <v>-5.4279999999998898</v>
+      </c>
+    </row>
+    <row r="74" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>228</v>
+      </c>
+      <c r="B74" t="s">
+        <v>229</v>
+      </c>
+      <c r="C74" t="s">
+        <v>47</v>
+      </c>
+      <c r="D74" t="s">
+        <v>230</v>
+      </c>
+      <c r="H74" s="4">
+        <v>43112.756898148145</v>
+      </c>
+      <c r="I74" s="4">
+        <v>43112.986076388886</v>
+      </c>
+      <c r="J74">
+        <v>19801</v>
+      </c>
+      <c r="K74" t="s">
+        <v>2</v>
+      </c>
+      <c r="L74" t="s">
+        <v>3</v>
+      </c>
+      <c r="M74" s="1">
+        <v>1.05</v>
+      </c>
+      <c r="N74">
+        <v>-8.3864999999999608</v>
+      </c>
+    </row>
+    <row r="75" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>231</v>
+      </c>
+      <c r="B75" t="s">
+        <v>232</v>
+      </c>
+      <c r="C75" t="s">
+        <v>47</v>
+      </c>
+      <c r="D75" t="s">
+        <v>51</v>
+      </c>
+      <c r="H75" s="4">
+        <v>43118.05196759259</v>
+      </c>
+      <c r="I75" s="4">
+        <v>43118.288090277776</v>
+      </c>
+      <c r="J75">
+        <v>20401</v>
+      </c>
+      <c r="K75" t="s">
+        <v>2</v>
+      </c>
+      <c r="L75" t="s">
+        <v>3</v>
+      </c>
+      <c r="M75">
+        <v>0.55300000000000005</v>
+      </c>
+      <c r="N75">
+        <v>5.4720000000000102</v>
+      </c>
+    </row>
+    <row r="76" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
+        <v>233</v>
+      </c>
+      <c r="B76" t="s">
+        <v>234</v>
+      </c>
+      <c r="C76" t="s">
+        <v>47</v>
+      </c>
+      <c r="D76" t="s">
+        <v>102</v>
+      </c>
+      <c r="H76" s="4">
+        <v>43126.975578703707</v>
+      </c>
+      <c r="I76" s="4">
+        <v>43127.086701388886</v>
+      </c>
+      <c r="J76">
+        <v>9601</v>
+      </c>
+      <c r="K76" t="s">
+        <v>2</v>
+      </c>
+      <c r="L76" t="s">
+        <v>1</v>
+      </c>
+      <c r="M76" s="1">
+        <v>1.264</v>
+      </c>
+      <c r="N76">
+        <v>2.72299999999982</v>
+      </c>
+    </row>
+    <row r="77" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
+        <v>235</v>
+      </c>
+      <c r="B77" t="s">
+        <v>236</v>
+      </c>
+      <c r="C77" t="s">
+        <v>47</v>
+      </c>
+      <c r="D77" t="s">
+        <v>133</v>
+      </c>
+      <c r="H77" s="4">
+        <v>43132.024189814816</v>
+      </c>
+      <c r="I77" s="4">
+        <v>43132.138784722221</v>
+      </c>
+      <c r="J77">
+        <v>9901</v>
+      </c>
+      <c r="K77" t="s">
+        <v>2</v>
+      </c>
+      <c r="L77" t="s">
+        <v>3</v>
+      </c>
+      <c r="M77" s="1">
+        <v>0.313</v>
+      </c>
+      <c r="N77">
+        <v>-4.5495000000001102</v>
+      </c>
+    </row>
+    <row r="78" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
+        <v>237</v>
+      </c>
+      <c r="B78" t="s">
+        <v>238</v>
+      </c>
+      <c r="C78" t="s">
+        <v>47</v>
+      </c>
+      <c r="D78" t="s">
+        <v>54</v>
+      </c>
+      <c r="H78" s="4">
+        <v>43144.711689814816</v>
+      </c>
+      <c r="I78" s="4">
+        <v>43145.586701388886</v>
+      </c>
+      <c r="J78">
+        <v>75601</v>
+      </c>
+      <c r="K78" t="s">
+        <v>2</v>
+      </c>
+      <c r="L78" t="s">
+        <v>1</v>
+      </c>
+      <c r="M78">
+        <v>0.19400000000000001</v>
+      </c>
+      <c r="N78">
+        <v>-6.3400000000001198</v>
+      </c>
+    </row>
+    <row r="79" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
+        <v>239</v>
+      </c>
+      <c r="B79" t="s">
+        <v>240</v>
+      </c>
+      <c r="C79" t="s">
+        <v>47</v>
+      </c>
+      <c r="D79" t="s">
+        <v>241</v>
+      </c>
+      <c r="H79" s="4">
+        <v>43145.944351851853</v>
+      </c>
+      <c r="I79" s="4">
+        <v>43146.058599537035</v>
+      </c>
+      <c r="J79">
+        <v>9871</v>
+      </c>
+      <c r="K79" t="s">
+        <v>2</v>
+      </c>
+      <c r="L79" t="s">
+        <v>1</v>
+      </c>
+      <c r="M79">
+        <v>-1.006</v>
+      </c>
+      <c r="N79">
+        <v>-4.9349999999999703</v>
+      </c>
+    </row>
+    <row r="80" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
+        <v>242</v>
+      </c>
+      <c r="B80" t="s">
+        <v>243</v>
+      </c>
+      <c r="C80" t="s">
+        <v>47</v>
+      </c>
+      <c r="D80" t="s">
+        <v>117</v>
+      </c>
+      <c r="H80" s="4">
+        <v>43151.11446759259</v>
+      </c>
+      <c r="I80" s="4">
+        <v>43152.082881944443</v>
+      </c>
+      <c r="J80">
+        <v>83671</v>
+      </c>
+      <c r="K80" t="s">
+        <v>2</v>
+      </c>
+      <c r="L80" t="s">
+        <v>1</v>
+      </c>
+      <c r="M80">
+        <v>-1.0109999999999999</v>
+      </c>
+      <c r="N80">
+        <v>-2.5930000000000799</v>
+      </c>
+    </row>
+    <row r="81" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A81" t="s">
+        <v>244</v>
+      </c>
+      <c r="B81" t="s">
+        <v>245</v>
+      </c>
+      <c r="C81" t="s">
+        <v>43</v>
+      </c>
+      <c r="D81" t="s">
+        <v>246</v>
+      </c>
+      <c r="H81" s="4">
+        <v>43154.861018518517</v>
+      </c>
+      <c r="I81" s="4">
+        <v>43155.208368055559</v>
+      </c>
+      <c r="J81">
+        <v>30011</v>
+      </c>
+      <c r="K81" t="s">
+        <v>2</v>
+      </c>
+      <c r="L81" t="s">
+        <v>1</v>
+      </c>
+      <c r="M81" s="1">
+        <v>-0.10299999999999999</v>
+      </c>
+      <c r="N81">
+        <v>0.46850000000006597</v>
+      </c>
+    </row>
+    <row r="82" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A82" t="s">
+        <v>247</v>
+      </c>
+      <c r="B82" t="s">
+        <v>248</v>
+      </c>
+      <c r="C82" t="s">
+        <v>47</v>
+      </c>
+      <c r="D82" t="s">
+        <v>117</v>
+      </c>
+      <c r="H82" s="4">
+        <v>43157.72210648148</v>
+      </c>
+      <c r="I82" s="4">
+        <v>43159.631840277776</v>
+      </c>
+      <c r="J82">
+        <v>165001</v>
+      </c>
+      <c r="K82" t="s">
+        <v>2</v>
+      </c>
+      <c r="L82" t="s">
+        <v>3</v>
+      </c>
+      <c r="M82" s="1">
+        <v>-1.0069999999999999</v>
+      </c>
+      <c r="N82">
+        <v>-1.0914999999999799</v>
+      </c>
+    </row>
+    <row r="83" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A83" t="s">
+        <v>249</v>
+      </c>
+      <c r="B83" t="s">
+        <v>250</v>
+      </c>
+      <c r="C83" t="s">
+        <v>43</v>
+      </c>
+      <c r="D83" t="s">
+        <v>44</v>
+      </c>
+      <c r="H83" s="4">
+        <v>43159.808935185189</v>
+      </c>
+      <c r="I83" s="4">
+        <v>43159.944363425922</v>
+      </c>
+      <c r="J83">
+        <v>11701</v>
+      </c>
+      <c r="K83" t="s">
+        <v>2</v>
+      </c>
+      <c r="L83" t="s">
+        <v>1</v>
+      </c>
+      <c r="M83">
+        <v>0.41799999999999998</v>
+      </c>
+      <c r="N83">
+        <v>-1.0219999999998199</v>
+      </c>
+    </row>
+    <row r="84" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A84" t="s">
+        <v>251</v>
+      </c>
+      <c r="B84" t="s">
+        <v>252</v>
+      </c>
+      <c r="C84" t="s">
+        <v>47</v>
+      </c>
+      <c r="D84" t="s">
+        <v>253</v>
+      </c>
+      <c r="H84" s="4">
+        <v>43164.725578703707</v>
+      </c>
+      <c r="I84" s="4">
+        <v>43165.025706018518</v>
+      </c>
+      <c r="J84">
+        <v>25931</v>
+      </c>
+      <c r="K84" t="s">
+        <v>2</v>
+      </c>
+      <c r="L84" t="s">
+        <v>1</v>
+      </c>
+      <c r="M84">
+        <v>-1.008</v>
+      </c>
+      <c r="N84">
+        <v>-9.7750000000000199</v>
+      </c>
+    </row>
+    <row r="85" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A85" t="s">
+        <v>254</v>
+      </c>
+      <c r="B85" t="s">
+        <v>255</v>
+      </c>
+      <c r="C85" t="s">
+        <v>47</v>
+      </c>
+      <c r="D85" t="s">
+        <v>256</v>
+      </c>
+      <c r="H85" s="4">
+        <v>43168.951296296298</v>
+      </c>
+      <c r="I85" s="4">
+        <v>43169.076307870368</v>
+      </c>
+      <c r="J85">
+        <v>10801</v>
+      </c>
+      <c r="K85" t="s">
+        <v>2</v>
+      </c>
+      <c r="L85" t="s">
+        <v>3</v>
+      </c>
+      <c r="M85">
+        <v>0.156</v>
+      </c>
+      <c r="N85">
+        <v>1.93399999999996</v>
+      </c>
+    </row>
+    <row r="86" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A86" t="s">
+        <v>257</v>
+      </c>
+      <c r="B86" t="s">
+        <v>258</v>
+      </c>
+      <c r="C86" t="s">
+        <v>47</v>
+      </c>
+      <c r="D86" t="s">
+        <v>259</v>
+      </c>
+      <c r="H86" s="4">
+        <v>43171.885300925926</v>
+      </c>
+      <c r="I86" s="4">
+        <v>43173.024201388886</v>
+      </c>
+      <c r="J86">
+        <v>98401</v>
+      </c>
+      <c r="K86" t="s">
+        <v>2</v>
+      </c>
+      <c r="L86" t="s">
+        <v>3</v>
+      </c>
+      <c r="M86">
+        <v>1.111</v>
+      </c>
+      <c r="N86">
+        <v>1.5454999999999499</v>
+      </c>
+    </row>
+    <row r="87" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A87" t="s">
+        <v>260</v>
+      </c>
+      <c r="B87" t="s">
+        <v>261</v>
+      </c>
+      <c r="C87" t="s">
+        <v>43</v>
+      </c>
+      <c r="D87" t="s">
+        <v>51</v>
+      </c>
+      <c r="H87" s="4">
+        <v>43174.781157407408</v>
+      </c>
+      <c r="I87" s="4">
+        <v>43176.208368055559</v>
+      </c>
+      <c r="J87">
+        <v>123311</v>
+      </c>
+      <c r="K87" t="s">
+        <v>2</v>
+      </c>
+      <c r="L87" t="s">
+        <v>1</v>
+      </c>
+      <c r="M87" s="1">
+        <v>-0.38100000000000001</v>
+      </c>
+      <c r="N87">
+        <v>1.83550000000016</v>
+      </c>
+    </row>
+    <row r="88" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A88" t="s">
+        <v>262</v>
+      </c>
+      <c r="B88" t="s">
+        <v>263</v>
+      </c>
+      <c r="C88" t="s">
+        <v>43</v>
+      </c>
+      <c r="D88" t="s">
+        <v>44</v>
+      </c>
+      <c r="H88" s="4">
+        <v>43180.867939814816</v>
+      </c>
+      <c r="I88" s="4">
+        <v>43181.173506944448</v>
+      </c>
+      <c r="J88">
+        <v>26401</v>
+      </c>
+      <c r="K88" t="s">
+        <v>2</v>
+      </c>
+      <c r="L88" t="s">
+        <v>3</v>
+      </c>
+      <c r="M88">
+        <v>0.626</v>
+      </c>
+      <c r="N88">
+        <v>1.8624999999999701</v>
+      </c>
+    </row>
+    <row r="89" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A89" t="s">
+        <v>264</v>
+      </c>
+      <c r="B89" t="s">
+        <v>265</v>
+      </c>
+      <c r="C89" t="s">
+        <v>47</v>
+      </c>
+      <c r="D89" t="s">
+        <v>266</v>
+      </c>
+      <c r="N89">
+        <v>-1.88650000000013</v>
+      </c>
+    </row>
+    <row r="90" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A90" t="s">
+        <v>267</v>
+      </c>
+      <c r="B90" t="s">
+        <v>268</v>
+      </c>
+      <c r="C90" t="s">
+        <v>43</v>
+      </c>
+      <c r="D90" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="91" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A91" t="s">
+        <v>270</v>
+      </c>
+      <c r="B91" t="s">
+        <v>271</v>
+      </c>
+      <c r="C91" t="s">
+        <v>43</v>
+      </c>
+      <c r="D91" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="92" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A92" t="s">
+        <v>272</v>
+      </c>
+      <c r="B92" t="s">
+        <v>273</v>
+      </c>
+      <c r="C92" t="s">
+        <v>47</v>
+      </c>
+      <c r="D92" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="93" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A93" t="s">
+        <v>274</v>
+      </c>
+      <c r="B93" t="s">
+        <v>275</v>
+      </c>
+      <c r="C93" t="s">
+        <v>43</v>
+      </c>
+      <c r="D93" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="94" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A94" t="s">
+        <v>276</v>
+      </c>
+      <c r="B94" t="s">
+        <v>277</v>
+      </c>
+      <c r="C94" t="s">
+        <v>47</v>
+      </c>
+      <c r="D94" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="95" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A95" t="s">
+        <v>278</v>
+      </c>
+      <c r="B95" t="s">
+        <v>279</v>
+      </c>
+      <c r="C95" t="s">
+        <v>43</v>
+      </c>
+      <c r="D95" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="96" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A96" t="s">
+        <v>280</v>
+      </c>
+      <c r="B96" t="s">
+        <v>281</v>
+      </c>
+      <c r="C96" t="s">
+        <v>43</v>
+      </c>
+      <c r="D96" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A97" t="s">
+        <v>283</v>
+      </c>
+      <c r="B97" t="s">
+        <v>284</v>
+      </c>
+      <c r="C97" t="s">
+        <v>47</v>
+      </c>
+      <c r="D97" t="s">
+        <v>140</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="H4:N89"/>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M345"/>
   <sheetViews>
     <sheetView workbookViewId="0">
